--- a/survey/responses.xlsx
+++ b/survey/responses.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\๑๒๓\Downloads\Secret Application Files\วิจัยใหม่\แบบสอบถาม\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\๑๒๓\Documents\GitHub\teacher-finder-research\survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9EDA36-4ACA-4A7F-9215-7EF231518D2F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14D4050-E695-489F-B5EC-CBBA4206AC29}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C45009E2-CBB5-49F4-92ED-26E39FC62138}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{C45009E2-CBB5-49F4-92ED-26E39FC62138}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Q</t>
   </si>
@@ -41,15 +41,112 @@
   <si>
     <t>Mean</t>
   </si>
+  <si>
+    <t>percent1</t>
+  </si>
+  <si>
+    <t>percent2</t>
+  </si>
+  <si>
+    <t>percent3</t>
+  </si>
+  <si>
+    <t>percent4</t>
+  </si>
+  <si>
+    <t>percent5</t>
+  </si>
+  <si>
+    <t>%sum</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>sat. rate</t>
+  </si>
+  <si>
+    <t>ปริมาณข้อมูลในการกรอกข้อมูลคาบเรียน</t>
+  </si>
+  <si>
+    <t>ปริมาณข้อมูลในการกรอกข้อมูลสถานที่สอน</t>
+  </si>
+  <si>
+    <t>การแสดงผลข้อมูลตารางเรียน</t>
+  </si>
+  <si>
+    <t>การแก้ไขข้อมูลคาบเรียนและตารางเรียน</t>
+  </si>
+  <si>
+    <t>การแก้ไขข้อมูลสถานที่สอนของอาจารย์</t>
+  </si>
+  <si>
+    <t>การแสดงผลข้อมูลสถานที่สอน</t>
+  </si>
+  <si>
+    <t>การจัดการกับรายชื่ออาจารย์</t>
+  </si>
+  <si>
+    <t>คำสั่ง [ส่งออกข้อมูล]</t>
+  </si>
+  <si>
+    <t>คำสั่ง [นำเข้าข้อมูล]</t>
+  </si>
+  <si>
+    <t>คำสั่ง [ล้างข้อมูล]</t>
+  </si>
+  <si>
+    <t>การอ่านข้อมูลภายในแอปพลิเคชัน</t>
+  </si>
+  <si>
+    <t>การเพิ่มและการแก้ไขข้อมูลภายในแอปพลิเคชัน</t>
+  </si>
+  <si>
+    <t>การโอนย้ายข้อมูลระหว่างแอปพลิเคชัน</t>
+  </si>
+  <si>
+    <t>ความครบถ้วนของข้อมูลที่ใช้แสดงผลภายในแอปพลิเคชัน</t>
+  </si>
+  <si>
+    <t>ความรวดเร็วในการเรียกใช้แอปพลิเคชัน</t>
+  </si>
+  <si>
+    <t>การควบคุมแอปพลิเคชัน</t>
+  </si>
+  <si>
+    <t>ความเสถียรภายในแอปพลิเคชัน</t>
+  </si>
+  <si>
+    <t>การออกแบบภายในแอปพลิเคชัน</t>
+  </si>
+  <si>
+    <t>ขนาดของตัวอักษรภายในแอปพลิเคชัน</t>
+  </si>
+  <si>
+    <t>ความพึงพอใจแอปพลิเคชันในภาพรวม</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -90,10 +187,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -105,18 +203,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -131,20 +217,51 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="เปอร์เซ็นต์" xfId="1" builtinId="5"/>
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -457,58 +574,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{560E8CD8-326C-4EEA-9601-3C7DFE9DEAF1}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="T16" sqref="T16:U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="9" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="6" width="9" style="1"/>
+    <col min="7" max="8" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="17" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7">
+    <row r="1" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6">
         <v>1</v>
       </c>
-      <c r="C1" s="7">
+      <c r="C1" s="6">
         <v>2</v>
       </c>
-      <c r="D1" s="7">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7">
-        <v>4</v>
-      </c>
-      <c r="F1" s="7">
-        <v>5</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="D1" s="6">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="15">
-        <v>4</v>
-      </c>
-      <c r="J1" s="16">
-        <v>5</v>
-      </c>
-      <c r="K1" s="15">
+      <c r="I1" s="9">
+        <v>4</v>
+      </c>
+      <c r="J1" s="10">
+        <v>5</v>
+      </c>
+      <c r="K1" s="9">
         <v>0.5</v>
       </c>
-      <c r="L1" s="16">
+      <c r="L1" s="10">
         <v>1</v>
       </c>
+      <c r="M1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="U1" s="21">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -540,18 +686,58 @@
         <f>AVERAGE(Sheet2!$B2:$AD2)</f>
         <v>4.3793103448275863</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="11">
         <f>H2-4</f>
         <v>0.3793103448275863</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5">
+      <c r="J2" s="11"/>
+      <c r="K2" s="11">
         <f>G2</f>
         <v>0.55172413793103448</v>
       </c>
-      <c r="L2" s="6"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="1">
+        <f>B2*(B$1-1)*0.25</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <f t="shared" ref="N2:Q17" si="0">C2*(C$1-1)*0.25</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="P2" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="Q2" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="R2" s="1">
+        <f>SUM(M2:Q2)</f>
+        <v>24.5</v>
+      </c>
+      <c r="S2" s="17">
+        <f>R2/29</f>
+        <v>0.84482758620689657</v>
+      </c>
+      <c r="T2" s="18">
+        <f>S2*100</f>
+        <v>84.482758620689651</v>
+      </c>
+      <c r="U2" s="18"/>
+      <c r="V2" s="1">
+        <f>_xlfn.FLOOR.MATH(S2*100)</f>
+        <v>84</v>
+      </c>
+      <c r="W2" s="19" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -583,18 +769,58 @@
         <f>AVERAGE(Sheet2!$B3:$AD3)</f>
         <v>4.2758620689655169</v>
       </c>
-      <c r="I3" s="5">
-        <f t="shared" ref="I3:I21" si="0">H3-4</f>
+      <c r="I3" s="11">
+        <f t="shared" ref="I3:I21" si="1">H3-4</f>
         <v>0.2758620689655169</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5">
-        <f t="shared" ref="K3:K21" si="1">G3</f>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11">
+        <f t="shared" ref="K3:K21" si="2">G3</f>
         <v>0.63769800030713553</v>
       </c>
-      <c r="L3" s="6"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M21" si="3">B3*(B$1-1)*0.25</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" si="0"/>
+        <v>11.25</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" ref="R3:R21" si="4">SUM(M3:Q3)</f>
+        <v>23.75</v>
+      </c>
+      <c r="S3" s="17">
+        <f t="shared" ref="S3:S21" si="5">R3/29</f>
+        <v>0.81896551724137934</v>
+      </c>
+      <c r="T3" s="18">
+        <f t="shared" ref="T3:T21" si="6">S3*100</f>
+        <v>81.896551724137936</v>
+      </c>
+      <c r="U3" s="18"/>
+      <c r="V3" s="1">
+        <f t="shared" ref="V3:V21" si="7">_xlfn.FLOOR.MATH(S3*100)</f>
+        <v>81</v>
+      </c>
+      <c r="W3" s="19" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -626,18 +852,58 @@
         <f>AVERAGE(Sheet2!$B4:$AD4)</f>
         <v>4.3103448275862073</v>
       </c>
-      <c r="I4" s="5">
-        <f t="shared" si="0"/>
+      <c r="I4" s="11">
+        <f t="shared" si="1"/>
         <v>0.31034482758620729</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5">
-        <f t="shared" si="1"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11">
+        <f t="shared" si="2"/>
         <v>0.6487892318009234</v>
       </c>
-      <c r="L4" s="6"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="S4" s="17">
+        <f t="shared" si="5"/>
+        <v>0.82758620689655171</v>
+      </c>
+      <c r="T4" s="18">
+        <f t="shared" si="6"/>
+        <v>82.758620689655174</v>
+      </c>
+      <c r="U4" s="18"/>
+      <c r="V4" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="W4" s="19" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -669,18 +935,58 @@
         <f>AVERAGE(Sheet2!$B5:$AD5)</f>
         <v>4.1724137931034484</v>
       </c>
-      <c r="I5" s="5">
-        <f t="shared" si="0"/>
+      <c r="I5" s="11">
+        <f t="shared" si="1"/>
         <v>0.1724137931034484</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5">
-        <f t="shared" si="1"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11">
+        <f t="shared" si="2"/>
         <v>0.74597612595806673</v>
       </c>
-      <c r="L5" s="6"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="S5" s="17">
+        <f t="shared" si="5"/>
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="T5" s="18">
+        <f t="shared" si="6"/>
+        <v>79.310344827586206</v>
+      </c>
+      <c r="U5" s="18"/>
+      <c r="V5" s="1">
+        <f t="shared" si="7"/>
+        <v>79</v>
+      </c>
+      <c r="W5" s="19" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -712,18 +1018,58 @@
         <f>AVERAGE(Sheet2!$B6:$AD6)</f>
         <v>4.1379310344827589</v>
       </c>
-      <c r="I6" s="5">
-        <f t="shared" si="0"/>
+      <c r="I6" s="11">
+        <f t="shared" si="1"/>
         <v>0.1379310344827589</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5">
-        <f t="shared" si="1"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11">
+        <f t="shared" si="2"/>
         <v>0.81892014393364942</v>
       </c>
-      <c r="L6" s="6"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="0"/>
+        <v>6.75</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="4"/>
+        <v>22.75</v>
+      </c>
+      <c r="S6" s="17">
+        <f t="shared" si="5"/>
+        <v>0.78448275862068961</v>
+      </c>
+      <c r="T6" s="18">
+        <f t="shared" si="6"/>
+        <v>78.448275862068968</v>
+      </c>
+      <c r="U6" s="18"/>
+      <c r="V6" s="1">
+        <f t="shared" si="7"/>
+        <v>78</v>
+      </c>
+      <c r="W6" s="19" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -755,18 +1101,58 @@
         <f>AVERAGE(Sheet2!$B7:$AD7)</f>
         <v>4</v>
       </c>
-      <c r="I7" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5">
+      <c r="I7" s="11">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11">
+        <f t="shared" si="2"/>
         <v>0.78783859715833537</v>
       </c>
-      <c r="L7" s="6"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="0"/>
+        <v>8.25</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="4"/>
+        <v>21.75</v>
+      </c>
+      <c r="S7" s="17">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
+      <c r="T7" s="18">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="U7" s="18"/>
+      <c r="V7" s="1">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
+      <c r="W7" s="19" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -798,18 +1184,58 @@
         <f>AVERAGE(Sheet2!$B8:$AD8)</f>
         <v>4.1379310344827589</v>
       </c>
-      <c r="I8" s="5">
-        <f t="shared" si="0"/>
+      <c r="I8" s="11">
+        <f t="shared" si="1"/>
         <v>0.1379310344827589</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5">
-        <f t="shared" si="1"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11">
+        <f t="shared" si="2"/>
         <v>0.72986243063850775</v>
       </c>
-      <c r="L8" s="6"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="0"/>
+        <v>9.75</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="4"/>
+        <v>22.75</v>
+      </c>
+      <c r="S8" s="17">
+        <f t="shared" si="5"/>
+        <v>0.78448275862068961</v>
+      </c>
+      <c r="T8" s="18">
+        <f t="shared" si="6"/>
+        <v>78.448275862068968</v>
+      </c>
+      <c r="U8" s="18"/>
+      <c r="V8" s="1">
+        <f t="shared" si="7"/>
+        <v>78</v>
+      </c>
+      <c r="W8" s="19" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -841,18 +1267,58 @@
         <f>AVERAGE(Sheet2!$B9:$AD9)</f>
         <v>4.1034482758620694</v>
       </c>
-      <c r="I9" s="5">
-        <f t="shared" si="0"/>
+      <c r="I9" s="11">
+        <f t="shared" si="1"/>
         <v>0.10344827586206939</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5">
-        <f t="shared" si="1"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11">
+        <f t="shared" si="2"/>
         <v>0.75862068965517249</v>
       </c>
-      <c r="L9" s="6"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="4"/>
+        <v>22.5</v>
+      </c>
+      <c r="S9" s="17">
+        <f t="shared" si="5"/>
+        <v>0.77586206896551724</v>
+      </c>
+      <c r="T9" s="18">
+        <f t="shared" si="6"/>
+        <v>77.58620689655173</v>
+      </c>
+      <c r="U9" s="18"/>
+      <c r="V9" s="1">
+        <f t="shared" si="7"/>
+        <v>77</v>
+      </c>
+      <c r="W9" s="19" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -884,104 +1350,224 @@
         <f>AVERAGE(Sheet2!$B10:$AD10)</f>
         <v>4.068965517241379</v>
       </c>
-      <c r="I10" s="5">
-        <f t="shared" si="0"/>
+      <c r="I10" s="11">
+        <f t="shared" si="1"/>
         <v>6.8965517241379004E-2</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5">
-        <f t="shared" si="1"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11">
+        <f t="shared" si="2"/>
         <v>0.73957277894921436</v>
       </c>
-      <c r="L10" s="6"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="0"/>
+        <v>9.75</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="4"/>
+        <v>22.25</v>
+      </c>
+      <c r="S10" s="17">
+        <f t="shared" si="5"/>
+        <v>0.76724137931034486</v>
+      </c>
+      <c r="T10" s="18">
+        <f t="shared" si="6"/>
+        <v>76.724137931034491</v>
+      </c>
+      <c r="U10" s="18"/>
+      <c r="V10" s="1">
+        <f t="shared" si="7"/>
+        <v>76</v>
+      </c>
+      <c r="W10" s="19" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+    <row r="11" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <f>COUNTIF(Sheet2!$B11:$AD11,Sheet1!B$1)</f>
         <v>0</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <f>COUNTIF(Sheet2!$B11:$AD11,Sheet1!C$1)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <f>COUNTIF(Sheet2!$B11:$AD11,Sheet1!D$1)</f>
         <v>4</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <f>COUNTIF(Sheet2!$B11:$AD11,Sheet1!E$1)</f>
         <v>16</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <f>COUNTIF(Sheet2!$B11:$AD11,Sheet1!F$1)</f>
         <v>9</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="5">
         <f>_xlfn.STDEV.P(Sheet2!$B11:$AD11)</f>
         <v>0.6469538979066799</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="5">
         <f>AVERAGE(Sheet2!$B11:$AD11)</f>
         <v>4.1724137931034484</v>
       </c>
-      <c r="I11" s="9">
-        <f t="shared" si="0"/>
+      <c r="I11" s="12">
+        <f t="shared" si="1"/>
         <v>0.1724137931034484</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9">
-        <f t="shared" si="1"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12">
+        <f t="shared" si="2"/>
         <v>0.6469538979066799</v>
       </c>
-      <c r="L11" s="10"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P11" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="Q11" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="R11" s="6">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="S11" s="22">
+        <f t="shared" si="5"/>
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="T11" s="15">
+        <f t="shared" si="6"/>
+        <v>79.310344827586206</v>
+      </c>
+      <c r="U11" s="15"/>
+      <c r="V11" s="6">
+        <f t="shared" si="7"/>
+        <v>79</v>
+      </c>
+      <c r="W11" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="7">
         <f>COUNTIF(Sheet2!$B12:$AD12,Sheet1!B$1)</f>
         <v>0</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="7">
         <f>COUNTIF(Sheet2!$B12:$AD12,Sheet1!C$1)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="7">
         <f>COUNTIF(Sheet2!$B12:$AD12,Sheet1!D$1)</f>
         <v>2</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="7">
         <f>COUNTIF(Sheet2!$B12:$AD12,Sheet1!E$1)</f>
         <v>9</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="7">
         <f>COUNTIF(Sheet2!$B12:$AD12,Sheet1!F$1)</f>
         <v>18</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="8">
         <f>_xlfn.STDEV.P(Sheet2!$B12:$AD12)</f>
         <v>0.62068965517241381</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="8">
         <f>AVERAGE(Sheet2!$B12:$AD12)</f>
         <v>4.5517241379310347</v>
       </c>
       <c r="I12" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5517241379310347</v>
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.62068965517241381</v>
       </c>
-      <c r="L12" s="14"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="0"/>
+        <v>6.75</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="4"/>
+        <v>25.75</v>
+      </c>
+      <c r="S12" s="17">
+        <f t="shared" si="5"/>
+        <v>0.88793103448275867</v>
+      </c>
+      <c r="T12" s="18">
+        <f t="shared" si="6"/>
+        <v>88.793103448275872</v>
+      </c>
+      <c r="U12" s="18"/>
+      <c r="V12" s="1">
+        <f t="shared" si="7"/>
+        <v>88</v>
+      </c>
+      <c r="W12" s="19" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1013,18 +1599,58 @@
         <f>AVERAGE(Sheet2!$B13:$AD13)</f>
         <v>4.1724137931034484</v>
       </c>
-      <c r="I13" s="5">
-        <f t="shared" si="0"/>
+      <c r="I13" s="11">
+        <f t="shared" si="1"/>
         <v>0.1724137931034484</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5">
-        <f t="shared" si="1"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11">
+        <f t="shared" si="2"/>
         <v>0.87371444547033983</v>
       </c>
-      <c r="L13" s="6"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="0"/>
+        <v>6.75</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="S13" s="17">
+        <f t="shared" si="5"/>
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="T13" s="18">
+        <f t="shared" si="6"/>
+        <v>79.310344827586206</v>
+      </c>
+      <c r="U13" s="18"/>
+      <c r="V13" s="1">
+        <f t="shared" si="7"/>
+        <v>79</v>
+      </c>
+      <c r="W13" s="19" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1056,18 +1682,58 @@
         <f>AVERAGE(Sheet2!$B14:$AD14)</f>
         <v>4.2068965517241379</v>
       </c>
-      <c r="I14" s="5">
-        <f t="shared" si="0"/>
+      <c r="I14" s="11">
+        <f t="shared" si="1"/>
         <v>0.2068965517241379</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5">
-        <f t="shared" si="1"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11">
+        <f t="shared" si="2"/>
         <v>0.76018647189822763</v>
       </c>
-      <c r="L14" s="6"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="0"/>
+        <v>8.25</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="4"/>
+        <v>23.25</v>
+      </c>
+      <c r="S14" s="17">
+        <f t="shared" si="5"/>
+        <v>0.80172413793103448</v>
+      </c>
+      <c r="T14" s="18">
+        <f t="shared" si="6"/>
+        <v>80.172413793103445</v>
+      </c>
+      <c r="U14" s="18"/>
+      <c r="V14" s="1">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="W14" s="19" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1099,18 +1765,58 @@
         <f>AVERAGE(Sheet2!$B15:$AD15)</f>
         <v>4.1724137931034484</v>
       </c>
-      <c r="I15" s="5">
-        <f t="shared" si="0"/>
+      <c r="I15" s="11">
+        <f t="shared" si="1"/>
         <v>0.1724137931034484</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5">
-        <f t="shared" si="1"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11">
+        <f t="shared" si="2"/>
         <v>0.74597612595806673</v>
       </c>
-      <c r="L15" s="6"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="S15" s="17">
+        <f t="shared" si="5"/>
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="T15" s="18">
+        <f t="shared" si="6"/>
+        <v>79.310344827586206</v>
+      </c>
+      <c r="U15" s="18"/>
+      <c r="V15" s="1">
+        <f t="shared" si="7"/>
+        <v>79</v>
+      </c>
+      <c r="W15" s="19" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1142,18 +1848,58 @@
         <f>AVERAGE(Sheet2!$B16:$AD16)</f>
         <v>4.3793103448275863</v>
       </c>
-      <c r="I16" s="5">
-        <f t="shared" si="0"/>
+      <c r="I16" s="11">
+        <f t="shared" si="1"/>
         <v>0.3793103448275863</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5">
-        <f t="shared" si="1"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11">
+        <f t="shared" si="2"/>
         <v>0.76174903566808694</v>
       </c>
-      <c r="L16" s="6"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="4"/>
+        <v>24.5</v>
+      </c>
+      <c r="S16" s="17">
+        <f t="shared" si="5"/>
+        <v>0.84482758620689657</v>
+      </c>
+      <c r="T16" s="18">
+        <f t="shared" si="6"/>
+        <v>84.482758620689651</v>
+      </c>
+      <c r="U16" s="18"/>
+      <c r="V16" s="1">
+        <f t="shared" si="7"/>
+        <v>84</v>
+      </c>
+      <c r="W16" s="19" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1185,18 +1931,58 @@
         <f>AVERAGE(Sheet2!$B17:$AD17)</f>
         <v>4.2413793103448274</v>
       </c>
-      <c r="I17" s="5">
-        <f t="shared" si="0"/>
+      <c r="I17" s="11">
+        <f t="shared" si="1"/>
         <v>0.2413793103448274</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5">
-        <f t="shared" si="1"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11">
+        <f t="shared" si="2"/>
         <v>0.77259850008303721</v>
       </c>
-      <c r="L17" s="6"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="R17" s="1">
+        <f t="shared" si="4"/>
+        <v>23.5</v>
+      </c>
+      <c r="S17" s="17">
+        <f t="shared" si="5"/>
+        <v>0.81034482758620685</v>
+      </c>
+      <c r="T17" s="18">
+        <f t="shared" si="6"/>
+        <v>81.034482758620683</v>
+      </c>
+      <c r="U17" s="18"/>
+      <c r="V17" s="1">
+        <f t="shared" si="7"/>
+        <v>81</v>
+      </c>
+      <c r="W17" s="19" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1228,18 +2014,58 @@
         <f>AVERAGE(Sheet2!$B18:$AD18)</f>
         <v>4.1034482758620694</v>
       </c>
-      <c r="I18" s="5">
-        <f t="shared" si="0"/>
+      <c r="I18" s="11">
+        <f t="shared" si="1"/>
         <v>0.10344827586206939</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5">
-        <f t="shared" si="1"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11">
+        <f t="shared" si="2"/>
         <v>0.80278942943605625</v>
       </c>
-      <c r="L18" s="6"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" ref="N18:N21" si="8">C18*(C$1-1)*0.25</f>
+        <v>0.25</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" ref="O18:O21" si="9">D18*(D$1-1)*0.25</f>
+        <v>2.5</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" ref="P18:P21" si="10">E18*(E$1-1)*0.25</f>
+        <v>9.75</v>
+      </c>
+      <c r="Q18" s="1">
+        <f t="shared" ref="Q18:Q21" si="11">F18*(F$1-1)*0.25</f>
+        <v>10</v>
+      </c>
+      <c r="R18" s="1">
+        <f t="shared" si="4"/>
+        <v>22.5</v>
+      </c>
+      <c r="S18" s="17">
+        <f t="shared" si="5"/>
+        <v>0.77586206896551724</v>
+      </c>
+      <c r="T18" s="18">
+        <f t="shared" si="6"/>
+        <v>77.58620689655173</v>
+      </c>
+      <c r="U18" s="18"/>
+      <c r="V18" s="1">
+        <f t="shared" si="7"/>
+        <v>77</v>
+      </c>
+      <c r="W18" s="19" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1271,18 +2097,58 @@
         <f>AVERAGE(Sheet2!$B19:$AD19)</f>
         <v>4.4137931034482758</v>
       </c>
-      <c r="I19" s="5">
-        <f t="shared" si="0"/>
+      <c r="I19" s="11">
+        <f t="shared" si="1"/>
         <v>0.4137931034482758</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5">
-        <f t="shared" si="1"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11">
+        <f t="shared" si="2"/>
         <v>0.67042145155943378</v>
       </c>
-      <c r="L19" s="6"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="10"/>
+        <v>8.25</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="R19" s="1">
+        <f t="shared" si="4"/>
+        <v>24.75</v>
+      </c>
+      <c r="S19" s="17">
+        <f t="shared" si="5"/>
+        <v>0.85344827586206895</v>
+      </c>
+      <c r="T19" s="18">
+        <f t="shared" si="6"/>
+        <v>85.34482758620689</v>
+      </c>
+      <c r="U19" s="18"/>
+      <c r="V19" s="1">
+        <f t="shared" si="7"/>
+        <v>85</v>
+      </c>
+      <c r="W19" s="19" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1314,70 +2180,202 @@
         <f>AVERAGE(Sheet2!$B20:$AD20)</f>
         <v>4.3793103448275863</v>
       </c>
-      <c r="I20" s="5">
-        <f t="shared" si="0"/>
+      <c r="I20" s="11">
+        <f t="shared" si="1"/>
         <v>0.3793103448275863</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5">
-        <f t="shared" si="1"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11">
+        <f t="shared" si="2"/>
         <v>0.66507936282710034</v>
       </c>
-      <c r="L20" s="6"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="R20" s="1">
+        <f t="shared" si="4"/>
+        <v>24.5</v>
+      </c>
+      <c r="S20" s="17">
+        <f t="shared" si="5"/>
+        <v>0.84482758620689657</v>
+      </c>
+      <c r="T20" s="18">
+        <f t="shared" si="6"/>
+        <v>84.482758620689651</v>
+      </c>
+      <c r="U20" s="18"/>
+      <c r="V20" s="1">
+        <f t="shared" si="7"/>
+        <v>84</v>
+      </c>
+      <c r="W20" s="19" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
+    <row r="21" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <f>COUNTIF(Sheet2!$B21:$AD21,Sheet1!B$1)</f>
         <v>0</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <f>COUNTIF(Sheet2!$B21:$AD21,Sheet1!C$1)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <f>COUNTIF(Sheet2!$B21:$AD21,Sheet1!D$1)</f>
         <v>2</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <f>COUNTIF(Sheet2!$B21:$AD21,Sheet1!E$1)</f>
         <v>16</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <f>COUNTIF(Sheet2!$B21:$AD21,Sheet1!F$1)</f>
         <v>11</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="5">
         <f>_xlfn.STDEV.P(Sheet2!$B21:$AD21)</f>
         <v>0.59326381152018115</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="5">
         <f>AVERAGE(Sheet2!$B21:$AD21)</f>
         <v>4.3103448275862073</v>
       </c>
-      <c r="I21" s="9">
-        <f t="shared" si="0"/>
+      <c r="I21" s="12">
+        <f t="shared" si="1"/>
         <v>0.31034482758620729</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9">
-        <f t="shared" si="1"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12">
+        <f t="shared" si="2"/>
         <v>0.59326381152018115</v>
       </c>
-      <c r="L21" s="10"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="6">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P21" s="6">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="Q21" s="6">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="R21" s="6">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="S21" s="22">
+        <f t="shared" si="5"/>
+        <v>0.82758620689655171</v>
+      </c>
+      <c r="T21" s="15">
+        <f t="shared" si="6"/>
+        <v>82.758620689655174</v>
+      </c>
+      <c r="U21" s="15"/>
+      <c r="V21" s="6">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="W21" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="17">
+        <v>0</v>
+      </c>
+      <c r="C22" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="D22" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="F22" s="17">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
+  <mergeCells count="60">
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I3:J3"/>
@@ -1390,29 +2388,18 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:F21">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1426,7 +2413,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I21">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="3">
       <dataBar showValue="0">
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1440,7 +2427,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:L21">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="2">
       <dataBar showValue="0">
         <cfvo type="num" val="0.5"/>
         <cfvo type="num" val="1"/>
@@ -1449,6 +2436,20 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{283C202D-D9D4-4E0B-8B91-C83CB118982D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T2:U21">
+    <cfRule type="dataBar" priority="1">
+      <dataBar showValue="0">
+        <cfvo type="num" val="70"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1A2F7C4D-0EF9-4955-B0D9-56B3B6668D1C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1500,6 +2501,21 @@
           </x14:cfRule>
           <xm:sqref>K2:L21</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1A2F7C4D-0EF9-4955-B0D9-56B3B6668D1C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>70</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>T2:U21</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/survey/responses.xlsx
+++ b/survey/responses.xlsx
@@ -1,21 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\๑๒๓\Documents\GitHub\teacher-finder-research\survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14D4050-E695-489F-B5EC-CBBA4206AC29}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2DC74C-6484-4CDC-A3F2-127292D5BF3B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{C45009E2-CBB5-49F4-92ED-26E39FC62138}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1" xr2:uid="{C45009E2-CBB5-49F4-92ED-26E39FC62138}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="รายละเอียด" sheetId="1" r:id="rId1"/>
+    <sheet name="สรุป" sheetId="3" r:id="rId2"/>
+    <sheet name="ข้อมูลดิบ" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">(สรุป!$A$1,สรุป!$A$4:$A$13)</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">(สรุป!$A$1,สรุป!$A$4:$A$26)</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">(สรุป!$G$1,สรุป!$G$4:$G$13)</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">(สรุป!$G$1,สรุป!$G$4:$G$26)</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">สรุป!$A$2:$A$26</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">สรุป!$A$4:$A$26</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">สรุป!$B$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">สรุป!$B$2:$B$26</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">สรุป!$C$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">สรุป!$C$2:$C$26</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">สรุป!$C$4:$C$13</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">สรุป!$C$4:$C$26</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">(สรุป!$C$1,สรุป!$C$4:$C$13)</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">สรุป!$D$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">สรุป!$D$2:$D$26</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">สรุป!$D$4:$D$13</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">สรุป!$D$4:$D$26</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">สรุป!$E$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">สรุป!$E$2:$E$26</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">สรุป!$E$4:$E$13</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">สรุป!$E$4:$E$26</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">สรุป!$F$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">สรุป!$F$2:$F$26</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">(สรุป!$C$1,สรุป!$C$4:$C$26)</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">สรุป!$F$4:$F$13</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">สรุป!$F$4:$F$26</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">สรุป!$G$1</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">สรุป!$G$2:$G$26</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">สรุป!$G$4:$G$13</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">สรุป!$G$4:$G$26</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">สรุป!$H$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">สรุป!$H$2:$H$26</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">สรุป!$H$4:$H$26</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">สรุป!$A$2:$A$26</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">(สรุป!$D$1,สรุป!$D$4:$D$13)</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">สรุป!$A$4:$A$26</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">สรุป!$B$1</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">สรุป!$B$2:$B$26</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">สรุป!$C$1</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">สรุป!$C$2:$C$26</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">สรุป!$C$4:$C$26</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">สรุป!$D$1</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">สรุป!$D$2:$D$26</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">สรุป!$D$4:$D$26</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">สรุป!$E$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">(สรุป!$D$1,สรุป!$D$4:$D$26)</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">สรุป!$E$2:$E$26</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">สรุป!$E$4:$E$26</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">สรุป!$F$1</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">สรุป!$F$2:$F$26</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">สรุป!$F$4:$F$26</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">สรุป!$G$1</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">สรุป!$G$2:$G$26</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">สรุป!$G$4:$G$26</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">สรุป!$H$1</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">สรุป!$H$2:$H$26</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">(สรุป!$E$1,สรุป!$E$4:$E$13)</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">สรุป!$H$4:$H$26</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">(สรุป!$E$1,สรุป!$E$4:$E$26)</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">(สรุป!$F$1,สรุป!$F$4:$F$13)</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">(สรุป!$F$1,สรุป!$F$4:$F$26)</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>Q</t>
   </si>
@@ -125,6 +189,30 @@
   <si>
     <t>ความพึงพอใจแอปพลิเคชันในภาพรวม</t>
   </si>
+  <si>
+    <t>ส่วนที่ 1 หลักการภายในแอปพลิเคชัน</t>
+  </si>
+  <si>
+    <t>ส่วนที่ 2 การออกแบบแอปพลิเคชัน</t>
+  </si>
+  <si>
+    <t>ความพึงพอใจในส่วนที่ 2 โดยเฉลี่ย</t>
+  </si>
+  <si>
+    <t>ความพึงพอใจในส่วนที่ 1 โดยเฉลี่ย</t>
+  </si>
+  <si>
+    <t>ข้อ</t>
+  </si>
+  <si>
+    <t>คำถาม</t>
+  </si>
+  <si>
+    <t>จำนวนการให้คะแนน</t>
+  </si>
+  <si>
+    <t>อัตราความพึงพอใจ</t>
+  </si>
 </sst>
 </file>
 
@@ -160,7 +248,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -186,12 +274,327 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -223,28 +626,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -258,6 +640,120 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -275,6 +771,1568 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="th-TH"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>สรุป!$J$4:$J$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>สรุป!$K$3:$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>ส่วนที่ 1 หลักการภายในแอปพลิเคชัน</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ส่วนที่ 2 การออกแบบแอปพลิเคชัน</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>สรุป!$K$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.84482758620689657</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88793103448275867</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4489-43BF-939B-7065610AC3B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>สรุป!$K$3:$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>ส่วนที่ 1 หลักการภายในแอปพลิเคชัน</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ส่วนที่ 2 การออกแบบแอปพลิเคชัน</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>สรุป!$K$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.81896551724137934</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7931034482758621</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4489-43BF-939B-7065610AC3B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>สรุป!$K$3:$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>ส่วนที่ 1 หลักการภายในแอปพลิเคชัน</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ส่วนที่ 2 การออกแบบแอปพลิเคชัน</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>สรุป!$K$6:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.82758620689655171</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80172413793103448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4489-43BF-939B-7065610AC3B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>สรุป!$K$3:$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>ส่วนที่ 1 หลักการภายในแอปพลิเคชัน</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ส่วนที่ 2 การออกแบบแอปพลิเคชัน</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>สรุป!$K$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.7931034482758621</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7931034482758621</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4489-43BF-939B-7065610AC3B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>สรุป!$K$3:$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>ส่วนที่ 1 หลักการภายในแอปพลิเคชัน</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ส่วนที่ 2 การออกแบบแอปพลิเคชัน</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>สรุป!$K$8:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.78448275862068961</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84482758620689657</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4489-43BF-939B-7065610AC3B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>สรุป!$K$3:$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>ส่วนที่ 1 หลักการภายในแอปพลิเคชัน</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ส่วนที่ 2 การออกแบบแอปพลิเคชัน</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>สรุป!$K$9:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81034482758620685</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4489-43BF-939B-7065610AC3B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>สรุป!$K$3:$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>ส่วนที่ 1 หลักการภายในแอปพลิเคชัน</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ส่วนที่ 2 การออกแบบแอปพลิเคชัน</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>สรุป!$K$10:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.78448275862068961</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77586206896551724</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4489-43BF-939B-7065610AC3B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>สรุป!$K$3:$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>ส่วนที่ 1 หลักการภายในแอปพลิเคชัน</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ส่วนที่ 2 การออกแบบแอปพลิเคชัน</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>สรุป!$K$11:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.77586206896551724</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85344827586206895</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-4489-43BF-939B-7065610AC3B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>สรุป!$K$3:$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>ส่วนที่ 1 หลักการภายในแอปพลิเคชัน</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ส่วนที่ 2 การออกแบบแอปพลิเคชัน</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>สรุป!$K$12:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.76724137931034486</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84482758620689657</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-4489-43BF-939B-7065610AC3B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>สรุป!$K$3:$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>ส่วนที่ 1 หลักการภายในแอปพลิเคชัน</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ส่วนที่ 2 การออกแบบแอปพลิเคชัน</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>สรุป!$K$13:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.7931034482758621</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82758620689655171</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-4489-43BF-939B-7065610AC3B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="506646016"/>
+        <c:axId val="506649296"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="506646016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="506649296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="506649296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.70000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="th-TH" sz="1600"/>
+                  <a:t>อัตราความพึงพอใจ</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="th-TH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="506646016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:latin typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+          <a:cs typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="th-TH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="แผนภูมิ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71AEDA21-4989-4416-A1BE-90DED1E0E4F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -576,8 +2634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{560E8CD8-326C-4EEA-9601-3C7DFE9DEAF1}">
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16:U16"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -647,10 +2705,10 @@
       <c r="S1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="20">
+      <c r="T1" s="13">
         <v>0.7</v>
       </c>
-      <c r="U1" s="21">
+      <c r="U1" s="14">
         <v>1</v>
       </c>
     </row>
@@ -659,43 +2717,43 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <f>COUNTIF(Sheet2!$B2:$AD2,Sheet1!B$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B2:$AD2,รายละเอียด!B$1)</f>
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <f>COUNTIF(Sheet2!$B2:$AD2,Sheet1!C$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B2:$AD2,รายละเอียด!C$1)</f>
         <v>0</v>
       </c>
       <c r="D2" s="3">
-        <f>COUNTIF(Sheet2!$B2:$AD2,Sheet1!D$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B2:$AD2,รายละเอียด!D$1)</f>
         <v>1</v>
       </c>
       <c r="E2" s="3">
-        <f>COUNTIF(Sheet2!$B2:$AD2,Sheet1!E$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B2:$AD2,รายละเอียด!E$1)</f>
         <v>16</v>
       </c>
       <c r="F2" s="3">
-        <f>COUNTIF(Sheet2!$B2:$AD2,Sheet1!F$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B2:$AD2,รายละเอียด!F$1)</f>
         <v>12</v>
       </c>
       <c r="G2" s="4">
-        <f>_xlfn.STDEV.P(Sheet2!$B2:$AD2)</f>
+        <f>_xlfn.STDEV.P(ข้อมูลดิบ!$B2:$AD2)</f>
         <v>0.55172413793103448</v>
       </c>
       <c r="H2" s="4">
-        <f>AVERAGE(Sheet2!$B2:$AD2)</f>
+        <f>AVERAGE(ข้อมูลดิบ!$B2:$AD2)</f>
         <v>4.3793103448275863</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="18">
         <f>H2-4</f>
         <v>0.3793103448275863</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11">
+      <c r="J2" s="18"/>
+      <c r="K2" s="18">
         <f>G2</f>
         <v>0.55172413793103448</v>
       </c>
-      <c r="L2" s="14"/>
+      <c r="L2" s="19"/>
       <c r="M2" s="1">
         <f>B2*(B$1-1)*0.25</f>
         <v>0</v>
@@ -720,20 +2778,20 @@
         <f>SUM(M2:Q2)</f>
         <v>24.5</v>
       </c>
-      <c r="S2" s="17">
+      <c r="S2" s="11">
         <f>R2/29</f>
         <v>0.84482758620689657</v>
       </c>
-      <c r="T2" s="18">
+      <c r="T2" s="16">
         <f>S2*100</f>
         <v>84.482758620689651</v>
       </c>
-      <c r="U2" s="18"/>
+      <c r="U2" s="16"/>
       <c r="V2" s="1">
         <f>_xlfn.FLOOR.MATH(S2*100)</f>
         <v>84</v>
       </c>
-      <c r="W2" s="19" t="s">
+      <c r="W2" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -742,43 +2800,43 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <f>COUNTIF(Sheet2!$B3:$AD3,Sheet1!B$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B3:$AD3,รายละเอียด!B$1)</f>
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <f>COUNTIF(Sheet2!$B3:$AD3,Sheet1!C$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B3:$AD3,รายละเอียด!C$1)</f>
         <v>0</v>
       </c>
       <c r="D3" s="3">
-        <f>COUNTIF(Sheet2!$B3:$AD3,Sheet1!D$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B3:$AD3,รายละเอียด!D$1)</f>
         <v>3</v>
       </c>
       <c r="E3" s="3">
-        <f>COUNTIF(Sheet2!$B3:$AD3,Sheet1!E$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B3:$AD3,รายละเอียด!E$1)</f>
         <v>15</v>
       </c>
       <c r="F3" s="3">
-        <f>COUNTIF(Sheet2!$B3:$AD3,Sheet1!F$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B3:$AD3,รายละเอียด!F$1)</f>
         <v>11</v>
       </c>
       <c r="G3" s="4">
-        <f>_xlfn.STDEV.P(Sheet2!$B3:$AD3)</f>
+        <f>_xlfn.STDEV.P(ข้อมูลดิบ!$B3:$AD3)</f>
         <v>0.63769800030713553</v>
       </c>
       <c r="H3" s="4">
-        <f>AVERAGE(Sheet2!$B3:$AD3)</f>
+        <f>AVERAGE(ข้อมูลดิบ!$B3:$AD3)</f>
         <v>4.2758620689655169</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="18">
         <f t="shared" ref="I3:I21" si="1">H3-4</f>
         <v>0.2758620689655169</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11">
+      <c r="J3" s="18"/>
+      <c r="K3" s="18">
         <f t="shared" ref="K3:K21" si="2">G3</f>
         <v>0.63769800030713553</v>
       </c>
-      <c r="L3" s="14"/>
+      <c r="L3" s="19"/>
       <c r="M3" s="1">
         <f t="shared" ref="M3:M21" si="3">B3*(B$1-1)*0.25</f>
         <v>0</v>
@@ -803,20 +2861,20 @@
         <f t="shared" ref="R3:R21" si="4">SUM(M3:Q3)</f>
         <v>23.75</v>
       </c>
-      <c r="S3" s="17">
+      <c r="S3" s="11">
         <f t="shared" ref="S3:S21" si="5">R3/29</f>
         <v>0.81896551724137934</v>
       </c>
-      <c r="T3" s="18">
+      <c r="T3" s="16">
         <f t="shared" ref="T3:T21" si="6">S3*100</f>
         <v>81.896551724137936</v>
       </c>
-      <c r="U3" s="18"/>
+      <c r="U3" s="16"/>
       <c r="V3" s="1">
         <f t="shared" ref="V3:V21" si="7">_xlfn.FLOOR.MATH(S3*100)</f>
         <v>81</v>
       </c>
-      <c r="W3" s="19" t="s">
+      <c r="W3" s="12" t="s">
         <v>12</v>
       </c>
     </row>
@@ -825,43 +2883,43 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <f>COUNTIF(Sheet2!$B4:$AD4,Sheet1!B$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B4:$AD4,รายละเอียด!B$1)</f>
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <f>COUNTIF(Sheet2!$B4:$AD4,Sheet1!C$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B4:$AD4,รายละเอียด!C$1)</f>
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <f>COUNTIF(Sheet2!$B4:$AD4,Sheet1!D$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B4:$AD4,รายละเอียด!D$1)</f>
         <v>3</v>
       </c>
       <c r="E4" s="3">
-        <f>COUNTIF(Sheet2!$B4:$AD4,Sheet1!E$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B4:$AD4,รายละเอียด!E$1)</f>
         <v>14</v>
       </c>
       <c r="F4" s="3">
-        <f>COUNTIF(Sheet2!$B4:$AD4,Sheet1!F$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B4:$AD4,รายละเอียด!F$1)</f>
         <v>12</v>
       </c>
       <c r="G4" s="4">
-        <f>_xlfn.STDEV.P(Sheet2!$B4:$AD4)</f>
+        <f>_xlfn.STDEV.P(ข้อมูลดิบ!$B4:$AD4)</f>
         <v>0.6487892318009234</v>
       </c>
       <c r="H4" s="4">
-        <f>AVERAGE(Sheet2!$B4:$AD4)</f>
+        <f>AVERAGE(ข้อมูลดิบ!$B4:$AD4)</f>
         <v>4.3103448275862073</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="18">
         <f t="shared" si="1"/>
         <v>0.31034482758620729</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11">
+      <c r="J4" s="18"/>
+      <c r="K4" s="18">
         <f t="shared" si="2"/>
         <v>0.6487892318009234</v>
       </c>
-      <c r="L4" s="14"/>
+      <c r="L4" s="19"/>
       <c r="M4" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -886,20 +2944,20 @@
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="S4" s="17">
+      <c r="S4" s="11">
         <f t="shared" si="5"/>
         <v>0.82758620689655171</v>
       </c>
-      <c r="T4" s="18">
+      <c r="T4" s="16">
         <f t="shared" si="6"/>
         <v>82.758620689655174</v>
       </c>
-      <c r="U4" s="18"/>
+      <c r="U4" s="16"/>
       <c r="V4" s="1">
         <f t="shared" si="7"/>
         <v>82</v>
       </c>
-      <c r="W4" s="19" t="s">
+      <c r="W4" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -908,43 +2966,43 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <f>COUNTIF(Sheet2!$B5:$AD5,Sheet1!B$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B5:$AD5,รายละเอียด!B$1)</f>
         <v>0</v>
       </c>
       <c r="C5" s="3">
-        <f>COUNTIF(Sheet2!$B5:$AD5,Sheet1!C$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B5:$AD5,รายละเอียด!C$1)</f>
         <v>0</v>
       </c>
       <c r="D5" s="3">
-        <f>COUNTIF(Sheet2!$B5:$AD5,Sheet1!D$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B5:$AD5,รายละเอียด!D$1)</f>
         <v>6</v>
       </c>
       <c r="E5" s="3">
-        <f>COUNTIF(Sheet2!$B5:$AD5,Sheet1!E$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B5:$AD5,รายละเอียด!E$1)</f>
         <v>12</v>
       </c>
       <c r="F5" s="3">
-        <f>COUNTIF(Sheet2!$B5:$AD5,Sheet1!F$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B5:$AD5,รายละเอียด!F$1)</f>
         <v>11</v>
       </c>
       <c r="G5" s="4">
-        <f>_xlfn.STDEV.P(Sheet2!$B5:$AD5)</f>
+        <f>_xlfn.STDEV.P(ข้อมูลดิบ!$B5:$AD5)</f>
         <v>0.74597612595806673</v>
       </c>
       <c r="H5" s="4">
-        <f>AVERAGE(Sheet2!$B5:$AD5)</f>
+        <f>AVERAGE(ข้อมูลดิบ!$B5:$AD5)</f>
         <v>4.1724137931034484</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="18">
         <f t="shared" si="1"/>
         <v>0.1724137931034484</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11">
+      <c r="J5" s="18"/>
+      <c r="K5" s="18">
         <f t="shared" si="2"/>
         <v>0.74597612595806673</v>
       </c>
-      <c r="L5" s="14"/>
+      <c r="L5" s="19"/>
       <c r="M5" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -969,20 +3027,20 @@
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="S5" s="17">
+      <c r="S5" s="11">
         <f t="shared" si="5"/>
         <v>0.7931034482758621</v>
       </c>
-      <c r="T5" s="18">
+      <c r="T5" s="16">
         <f t="shared" si="6"/>
         <v>79.310344827586206</v>
       </c>
-      <c r="U5" s="18"/>
+      <c r="U5" s="16"/>
       <c r="V5" s="1">
         <f t="shared" si="7"/>
         <v>79</v>
       </c>
-      <c r="W5" s="19" t="s">
+      <c r="W5" s="12" t="s">
         <v>16</v>
       </c>
     </row>
@@ -991,43 +3049,43 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <f>COUNTIF(Sheet2!$B6:$AD6,Sheet1!B$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B6:$AD6,รายละเอียด!B$1)</f>
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <f>COUNTIF(Sheet2!$B6:$AD6,Sheet1!C$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B6:$AD6,รายละเอียด!C$1)</f>
         <v>0</v>
       </c>
       <c r="D6" s="3">
-        <f>COUNTIF(Sheet2!$B6:$AD6,Sheet1!D$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B6:$AD6,รายละเอียด!D$1)</f>
         <v>8</v>
       </c>
       <c r="E6" s="3">
-        <f>COUNTIF(Sheet2!$B6:$AD6,Sheet1!E$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B6:$AD6,รายละเอียด!E$1)</f>
         <v>9</v>
       </c>
       <c r="F6" s="3">
-        <f>COUNTIF(Sheet2!$B6:$AD6,Sheet1!F$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B6:$AD6,รายละเอียด!F$1)</f>
         <v>12</v>
       </c>
       <c r="G6" s="4">
-        <f>_xlfn.STDEV.P(Sheet2!$B6:$AD6)</f>
+        <f>_xlfn.STDEV.P(ข้อมูลดิบ!$B6:$AD6)</f>
         <v>0.81892014393364942</v>
       </c>
       <c r="H6" s="4">
-        <f>AVERAGE(Sheet2!$B6:$AD6)</f>
+        <f>AVERAGE(ข้อมูลดิบ!$B6:$AD6)</f>
         <v>4.1379310344827589</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="18">
         <f t="shared" si="1"/>
         <v>0.1379310344827589</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11">
+      <c r="J6" s="18"/>
+      <c r="K6" s="18">
         <f t="shared" si="2"/>
         <v>0.81892014393364942</v>
       </c>
-      <c r="L6" s="14"/>
+      <c r="L6" s="19"/>
       <c r="M6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1052,20 +3110,20 @@
         <f t="shared" si="4"/>
         <v>22.75</v>
       </c>
-      <c r="S6" s="17">
+      <c r="S6" s="11">
         <f t="shared" si="5"/>
         <v>0.78448275862068961</v>
       </c>
-      <c r="T6" s="18">
+      <c r="T6" s="16">
         <f t="shared" si="6"/>
         <v>78.448275862068968</v>
       </c>
-      <c r="U6" s="18"/>
+      <c r="U6" s="16"/>
       <c r="V6" s="1">
         <f t="shared" si="7"/>
         <v>78</v>
       </c>
-      <c r="W6" s="19" t="s">
+      <c r="W6" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1074,43 +3132,43 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <f>COUNTIF(Sheet2!$B7:$AD7,Sheet1!B$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B7:$AD7,รายละเอียด!B$1)</f>
         <v>0</v>
       </c>
       <c r="C7" s="3">
-        <f>COUNTIF(Sheet2!$B7:$AD7,Sheet1!C$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B7:$AD7,รายละเอียด!C$1)</f>
         <v>0</v>
       </c>
       <c r="D7" s="3">
-        <f>COUNTIF(Sheet2!$B7:$AD7,Sheet1!D$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B7:$AD7,รายละเอียด!D$1)</f>
         <v>9</v>
       </c>
       <c r="E7" s="3">
-        <f>COUNTIF(Sheet2!$B7:$AD7,Sheet1!E$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B7:$AD7,รายละเอียด!E$1)</f>
         <v>11</v>
       </c>
       <c r="F7" s="3">
-        <f>COUNTIF(Sheet2!$B7:$AD7,Sheet1!F$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B7:$AD7,รายละเอียด!F$1)</f>
         <v>9</v>
       </c>
       <c r="G7" s="4">
-        <f>_xlfn.STDEV.P(Sheet2!$B7:$AD7)</f>
+        <f>_xlfn.STDEV.P(ข้อมูลดิบ!$B7:$AD7)</f>
         <v>0.78783859715833537</v>
       </c>
       <c r="H7" s="4">
-        <f>AVERAGE(Sheet2!$B7:$AD7)</f>
-        <v>4</v>
-      </c>
-      <c r="I7" s="11">
+        <f>AVERAGE(ข้อมูลดิบ!$B7:$AD7)</f>
+        <v>4</v>
+      </c>
+      <c r="I7" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11">
+      <c r="J7" s="18"/>
+      <c r="K7" s="18">
         <f t="shared" si="2"/>
         <v>0.78783859715833537</v>
       </c>
-      <c r="L7" s="14"/>
+      <c r="L7" s="19"/>
       <c r="M7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1135,20 +3193,20 @@
         <f t="shared" si="4"/>
         <v>21.75</v>
       </c>
-      <c r="S7" s="17">
+      <c r="S7" s="11">
         <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
-      <c r="T7" s="18">
+      <c r="T7" s="16">
         <f t="shared" si="6"/>
         <v>75</v>
       </c>
-      <c r="U7" s="18"/>
+      <c r="U7" s="16"/>
       <c r="V7" s="1">
         <f t="shared" si="7"/>
         <v>75</v>
       </c>
-      <c r="W7" s="19" t="s">
+      <c r="W7" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1157,43 +3215,43 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <f>COUNTIF(Sheet2!$B8:$AD8,Sheet1!B$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B8:$AD8,รายละเอียด!B$1)</f>
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <f>COUNTIF(Sheet2!$B8:$AD8,Sheet1!C$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B8:$AD8,รายละเอียด!C$1)</f>
         <v>0</v>
       </c>
       <c r="D8" s="3">
-        <f>COUNTIF(Sheet2!$B8:$AD8,Sheet1!D$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B8:$AD8,รายละเอียด!D$1)</f>
         <v>6</v>
       </c>
       <c r="E8" s="3">
-        <f>COUNTIF(Sheet2!$B8:$AD8,Sheet1!E$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B8:$AD8,รายละเอียด!E$1)</f>
         <v>13</v>
       </c>
       <c r="F8" s="3">
-        <f>COUNTIF(Sheet2!$B8:$AD8,Sheet1!F$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B8:$AD8,รายละเอียด!F$1)</f>
         <v>10</v>
       </c>
       <c r="G8" s="4">
-        <f>_xlfn.STDEV.P(Sheet2!$B8:$AD8)</f>
+        <f>_xlfn.STDEV.P(ข้อมูลดิบ!$B8:$AD8)</f>
         <v>0.72986243063850775</v>
       </c>
       <c r="H8" s="4">
-        <f>AVERAGE(Sheet2!$B8:$AD8)</f>
+        <f>AVERAGE(ข้อมูลดิบ!$B8:$AD8)</f>
         <v>4.1379310344827589</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="18">
         <f t="shared" si="1"/>
         <v>0.1379310344827589</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11">
+      <c r="J8" s="18"/>
+      <c r="K8" s="18">
         <f t="shared" si="2"/>
         <v>0.72986243063850775</v>
       </c>
-      <c r="L8" s="14"/>
+      <c r="L8" s="19"/>
       <c r="M8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1218,20 +3276,20 @@
         <f t="shared" si="4"/>
         <v>22.75</v>
       </c>
-      <c r="S8" s="17">
+      <c r="S8" s="11">
         <f t="shared" si="5"/>
         <v>0.78448275862068961</v>
       </c>
-      <c r="T8" s="18">
+      <c r="T8" s="16">
         <f t="shared" si="6"/>
         <v>78.448275862068968</v>
       </c>
-      <c r="U8" s="18"/>
+      <c r="U8" s="16"/>
       <c r="V8" s="1">
         <f t="shared" si="7"/>
         <v>78</v>
       </c>
-      <c r="W8" s="19" t="s">
+      <c r="W8" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1240,43 +3298,43 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <f>COUNTIF(Sheet2!$B9:$AD9,Sheet1!B$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B9:$AD9,รายละเอียด!B$1)</f>
         <v>0</v>
       </c>
       <c r="C9" s="3">
-        <f>COUNTIF(Sheet2!$B9:$AD9,Sheet1!C$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B9:$AD9,รายละเอียด!C$1)</f>
         <v>0</v>
       </c>
       <c r="D9" s="3">
-        <f>COUNTIF(Sheet2!$B9:$AD9,Sheet1!D$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B9:$AD9,รายละเอียด!D$1)</f>
         <v>7</v>
       </c>
       <c r="E9" s="3">
-        <f>COUNTIF(Sheet2!$B9:$AD9,Sheet1!E$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B9:$AD9,รายละเอียด!E$1)</f>
         <v>12</v>
       </c>
       <c r="F9" s="3">
-        <f>COUNTIF(Sheet2!$B9:$AD9,Sheet1!F$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B9:$AD9,รายละเอียด!F$1)</f>
         <v>10</v>
       </c>
       <c r="G9" s="4">
-        <f>_xlfn.STDEV.P(Sheet2!$B9:$AD9)</f>
+        <f>_xlfn.STDEV.P(ข้อมูลดิบ!$B9:$AD9)</f>
         <v>0.75862068965517249</v>
       </c>
       <c r="H9" s="4">
-        <f>AVERAGE(Sheet2!$B9:$AD9)</f>
+        <f>AVERAGE(ข้อมูลดิบ!$B9:$AD9)</f>
         <v>4.1034482758620694</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="18">
         <f t="shared" si="1"/>
         <v>0.10344827586206939</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11">
+      <c r="J9" s="18"/>
+      <c r="K9" s="18">
         <f t="shared" si="2"/>
         <v>0.75862068965517249</v>
       </c>
-      <c r="L9" s="14"/>
+      <c r="L9" s="19"/>
       <c r="M9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1301,20 +3359,20 @@
         <f t="shared" si="4"/>
         <v>22.5</v>
       </c>
-      <c r="S9" s="17">
+      <c r="S9" s="11">
         <f t="shared" si="5"/>
         <v>0.77586206896551724</v>
       </c>
-      <c r="T9" s="18">
+      <c r="T9" s="16">
         <f t="shared" si="6"/>
         <v>77.58620689655173</v>
       </c>
-      <c r="U9" s="18"/>
+      <c r="U9" s="16"/>
       <c r="V9" s="1">
         <f t="shared" si="7"/>
         <v>77</v>
       </c>
-      <c r="W9" s="19" t="s">
+      <c r="W9" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1323,43 +3381,43 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <f>COUNTIF(Sheet2!$B10:$AD10,Sheet1!B$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B10:$AD10,รายละเอียด!B$1)</f>
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <f>COUNTIF(Sheet2!$B10:$AD10,Sheet1!C$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B10:$AD10,รายละเอียด!C$1)</f>
         <v>0</v>
       </c>
       <c r="D10" s="3">
-        <f>COUNTIF(Sheet2!$B10:$AD10,Sheet1!D$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B10:$AD10,รายละเอียด!D$1)</f>
         <v>7</v>
       </c>
       <c r="E10" s="3">
-        <f>COUNTIF(Sheet2!$B10:$AD10,Sheet1!E$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B10:$AD10,รายละเอียด!E$1)</f>
         <v>13</v>
       </c>
       <c r="F10" s="3">
-        <f>COUNTIF(Sheet2!$B10:$AD10,Sheet1!F$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B10:$AD10,รายละเอียด!F$1)</f>
         <v>9</v>
       </c>
       <c r="G10" s="4">
-        <f>_xlfn.STDEV.P(Sheet2!$B10:$AD10)</f>
+        <f>_xlfn.STDEV.P(ข้อมูลดิบ!$B10:$AD10)</f>
         <v>0.73957277894921436</v>
       </c>
       <c r="H10" s="4">
-        <f>AVERAGE(Sheet2!$B10:$AD10)</f>
+        <f>AVERAGE(ข้อมูลดิบ!$B10:$AD10)</f>
         <v>4.068965517241379</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="18">
         <f t="shared" si="1"/>
         <v>6.8965517241379004E-2</v>
       </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11">
+      <c r="J10" s="18"/>
+      <c r="K10" s="18">
         <f t="shared" si="2"/>
         <v>0.73957277894921436</v>
       </c>
-      <c r="L10" s="14"/>
+      <c r="L10" s="19"/>
       <c r="M10" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1384,20 +3442,20 @@
         <f t="shared" si="4"/>
         <v>22.25</v>
       </c>
-      <c r="S10" s="17">
+      <c r="S10" s="11">
         <f t="shared" si="5"/>
         <v>0.76724137931034486</v>
       </c>
-      <c r="T10" s="18">
+      <c r="T10" s="16">
         <f t="shared" si="6"/>
         <v>76.724137931034491</v>
       </c>
-      <c r="U10" s="18"/>
+      <c r="U10" s="16"/>
       <c r="V10" s="1">
         <f t="shared" si="7"/>
         <v>76</v>
       </c>
-      <c r="W10" s="19" t="s">
+      <c r="W10" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1406,43 +3464,43 @@
         <v>10</v>
       </c>
       <c r="B11" s="6">
-        <f>COUNTIF(Sheet2!$B11:$AD11,Sheet1!B$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B11:$AD11,รายละเอียด!B$1)</f>
         <v>0</v>
       </c>
       <c r="C11" s="6">
-        <f>COUNTIF(Sheet2!$B11:$AD11,Sheet1!C$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B11:$AD11,รายละเอียด!C$1)</f>
         <v>0</v>
       </c>
       <c r="D11" s="6">
-        <f>COUNTIF(Sheet2!$B11:$AD11,Sheet1!D$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B11:$AD11,รายละเอียด!D$1)</f>
         <v>4</v>
       </c>
       <c r="E11" s="6">
-        <f>COUNTIF(Sheet2!$B11:$AD11,Sheet1!E$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B11:$AD11,รายละเอียด!E$1)</f>
         <v>16</v>
       </c>
       <c r="F11" s="6">
-        <f>COUNTIF(Sheet2!$B11:$AD11,Sheet1!F$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B11:$AD11,รายละเอียด!F$1)</f>
         <v>9</v>
       </c>
       <c r="G11" s="5">
-        <f>_xlfn.STDEV.P(Sheet2!$B11:$AD11)</f>
+        <f>_xlfn.STDEV.P(ข้อมูลดิบ!$B11:$AD11)</f>
         <v>0.6469538979066799</v>
       </c>
       <c r="H11" s="5">
-        <f>AVERAGE(Sheet2!$B11:$AD11)</f>
+        <f>AVERAGE(ข้อมูลดิบ!$B11:$AD11)</f>
         <v>4.1724137931034484</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="20">
         <f t="shared" si="1"/>
         <v>0.1724137931034484</v>
       </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12">
+      <c r="J11" s="20"/>
+      <c r="K11" s="20">
         <f t="shared" si="2"/>
         <v>0.6469538979066799</v>
       </c>
-      <c r="L11" s="15"/>
+      <c r="L11" s="17"/>
       <c r="M11" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1467,15 +3525,15 @@
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="S11" s="22">
+      <c r="S11" s="15">
         <f t="shared" si="5"/>
         <v>0.7931034482758621</v>
       </c>
-      <c r="T11" s="15">
+      <c r="T11" s="17">
         <f t="shared" si="6"/>
         <v>79.310344827586206</v>
       </c>
-      <c r="U11" s="15"/>
+      <c r="U11" s="17"/>
       <c r="V11" s="6">
         <f t="shared" si="7"/>
         <v>79</v>
@@ -1489,43 +3547,43 @@
         <v>11</v>
       </c>
       <c r="B12" s="7">
-        <f>COUNTIF(Sheet2!$B12:$AD12,Sheet1!B$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B12:$AD12,รายละเอียด!B$1)</f>
         <v>0</v>
       </c>
       <c r="C12" s="7">
-        <f>COUNTIF(Sheet2!$B12:$AD12,Sheet1!C$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B12:$AD12,รายละเอียด!C$1)</f>
         <v>0</v>
       </c>
       <c r="D12" s="7">
-        <f>COUNTIF(Sheet2!$B12:$AD12,Sheet1!D$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B12:$AD12,รายละเอียด!D$1)</f>
         <v>2</v>
       </c>
       <c r="E12" s="7">
-        <f>COUNTIF(Sheet2!$B12:$AD12,Sheet1!E$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B12:$AD12,รายละเอียด!E$1)</f>
         <v>9</v>
       </c>
       <c r="F12" s="7">
-        <f>COUNTIF(Sheet2!$B12:$AD12,Sheet1!F$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B12:$AD12,รายละเอียด!F$1)</f>
         <v>18</v>
       </c>
       <c r="G12" s="8">
-        <f>_xlfn.STDEV.P(Sheet2!$B12:$AD12)</f>
+        <f>_xlfn.STDEV.P(ข้อมูลดิบ!$B12:$AD12)</f>
         <v>0.62068965517241381</v>
       </c>
       <c r="H12" s="8">
-        <f>AVERAGE(Sheet2!$B12:$AD12)</f>
+        <f>AVERAGE(ข้อมูลดิบ!$B12:$AD12)</f>
         <v>4.5517241379310347</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="21">
         <f t="shared" si="1"/>
         <v>0.5517241379310347</v>
       </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13">
+      <c r="J12" s="21"/>
+      <c r="K12" s="21">
         <f t="shared" si="2"/>
         <v>0.62068965517241381</v>
       </c>
-      <c r="L12" s="16"/>
+      <c r="L12" s="22"/>
       <c r="M12" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1550,20 +3608,20 @@
         <f t="shared" si="4"/>
         <v>25.75</v>
       </c>
-      <c r="S12" s="17">
+      <c r="S12" s="11">
         <f t="shared" si="5"/>
         <v>0.88793103448275867</v>
       </c>
-      <c r="T12" s="18">
+      <c r="T12" s="16">
         <f t="shared" si="6"/>
         <v>88.793103448275872</v>
       </c>
-      <c r="U12" s="18"/>
+      <c r="U12" s="16"/>
       <c r="V12" s="1">
         <f t="shared" si="7"/>
         <v>88</v>
       </c>
-      <c r="W12" s="19" t="s">
+      <c r="W12" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1572,43 +3630,43 @@
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <f>COUNTIF(Sheet2!$B13:$AD13,Sheet1!B$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B13:$AD13,รายละเอียด!B$1)</f>
         <v>0</v>
       </c>
       <c r="C13" s="3">
-        <f>COUNTIF(Sheet2!$B13:$AD13,Sheet1!C$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B13:$AD13,รายละเอียด!C$1)</f>
         <v>1</v>
       </c>
       <c r="D13" s="3">
-        <f>COUNTIF(Sheet2!$B13:$AD13,Sheet1!D$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B13:$AD13,รายละเอียด!D$1)</f>
         <v>6</v>
       </c>
       <c r="E13" s="3">
-        <f>COUNTIF(Sheet2!$B13:$AD13,Sheet1!E$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B13:$AD13,รายละเอียด!E$1)</f>
         <v>9</v>
       </c>
       <c r="F13" s="3">
-        <f>COUNTIF(Sheet2!$B13:$AD13,Sheet1!F$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B13:$AD13,รายละเอียด!F$1)</f>
         <v>13</v>
       </c>
       <c r="G13" s="4">
-        <f>_xlfn.STDEV.P(Sheet2!$B13:$AD13)</f>
+        <f>_xlfn.STDEV.P(ข้อมูลดิบ!$B13:$AD13)</f>
         <v>0.87371444547033983</v>
       </c>
       <c r="H13" s="4">
-        <f>AVERAGE(Sheet2!$B13:$AD13)</f>
+        <f>AVERAGE(ข้อมูลดิบ!$B13:$AD13)</f>
         <v>4.1724137931034484</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="18">
         <f t="shared" si="1"/>
         <v>0.1724137931034484</v>
       </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11">
+      <c r="J13" s="18"/>
+      <c r="K13" s="18">
         <f t="shared" si="2"/>
         <v>0.87371444547033983</v>
       </c>
-      <c r="L13" s="14"/>
+      <c r="L13" s="19"/>
       <c r="M13" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1633,20 +3691,20 @@
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="S13" s="17">
+      <c r="S13" s="11">
         <f t="shared" si="5"/>
         <v>0.7931034482758621</v>
       </c>
-      <c r="T13" s="18">
+      <c r="T13" s="16">
         <f t="shared" si="6"/>
         <v>79.310344827586206</v>
       </c>
-      <c r="U13" s="18"/>
+      <c r="U13" s="16"/>
       <c r="V13" s="1">
         <f t="shared" si="7"/>
         <v>79</v>
       </c>
-      <c r="W13" s="19" t="s">
+      <c r="W13" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1655,43 +3713,43 @@
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <f>COUNTIF(Sheet2!$B14:$AD14,Sheet1!B$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B14:$AD14,รายละเอียด!B$1)</f>
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <f>COUNTIF(Sheet2!$B14:$AD14,Sheet1!C$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B14:$AD14,รายละเอียด!C$1)</f>
         <v>0</v>
       </c>
       <c r="D14" s="3">
-        <f>COUNTIF(Sheet2!$B14:$AD14,Sheet1!D$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B14:$AD14,รายละเอียด!D$1)</f>
         <v>6</v>
       </c>
       <c r="E14" s="3">
-        <f>COUNTIF(Sheet2!$B14:$AD14,Sheet1!E$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B14:$AD14,รายละเอียด!E$1)</f>
         <v>11</v>
       </c>
       <c r="F14" s="3">
-        <f>COUNTIF(Sheet2!$B14:$AD14,Sheet1!F$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B14:$AD14,รายละเอียด!F$1)</f>
         <v>12</v>
       </c>
       <c r="G14" s="4">
-        <f>_xlfn.STDEV.P(Sheet2!$B14:$AD14)</f>
+        <f>_xlfn.STDEV.P(ข้อมูลดิบ!$B14:$AD14)</f>
         <v>0.76018647189822763</v>
       </c>
       <c r="H14" s="4">
-        <f>AVERAGE(Sheet2!$B14:$AD14)</f>
+        <f>AVERAGE(ข้อมูลดิบ!$B14:$AD14)</f>
         <v>4.2068965517241379</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="18">
         <f t="shared" si="1"/>
         <v>0.2068965517241379</v>
       </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11">
+      <c r="J14" s="18"/>
+      <c r="K14" s="18">
         <f t="shared" si="2"/>
         <v>0.76018647189822763</v>
       </c>
-      <c r="L14" s="14"/>
+      <c r="L14" s="19"/>
       <c r="M14" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1716,20 +3774,20 @@
         <f t="shared" si="4"/>
         <v>23.25</v>
       </c>
-      <c r="S14" s="17">
+      <c r="S14" s="11">
         <f t="shared" si="5"/>
         <v>0.80172413793103448</v>
       </c>
-      <c r="T14" s="18">
+      <c r="T14" s="16">
         <f t="shared" si="6"/>
         <v>80.172413793103445</v>
       </c>
-      <c r="U14" s="18"/>
+      <c r="U14" s="16"/>
       <c r="V14" s="1">
         <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="W14" s="19" t="s">
+      <c r="W14" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1738,43 +3796,43 @@
         <v>14</v>
       </c>
       <c r="B15" s="3">
-        <f>COUNTIF(Sheet2!$B15:$AD15,Sheet1!B$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B15:$AD15,รายละเอียด!B$1)</f>
         <v>0</v>
       </c>
       <c r="C15" s="3">
-        <f>COUNTIF(Sheet2!$B15:$AD15,Sheet1!C$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B15:$AD15,รายละเอียด!C$1)</f>
         <v>0</v>
       </c>
       <c r="D15" s="3">
-        <f>COUNTIF(Sheet2!$B15:$AD15,Sheet1!D$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B15:$AD15,รายละเอียด!D$1)</f>
         <v>6</v>
       </c>
       <c r="E15" s="3">
-        <f>COUNTIF(Sheet2!$B15:$AD15,Sheet1!E$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B15:$AD15,รายละเอียด!E$1)</f>
         <v>12</v>
       </c>
       <c r="F15" s="3">
-        <f>COUNTIF(Sheet2!$B15:$AD15,Sheet1!F$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B15:$AD15,รายละเอียด!F$1)</f>
         <v>11</v>
       </c>
       <c r="G15" s="4">
-        <f>_xlfn.STDEV.P(Sheet2!$B15:$AD15)</f>
+        <f>_xlfn.STDEV.P(ข้อมูลดิบ!$B15:$AD15)</f>
         <v>0.74597612595806673</v>
       </c>
       <c r="H15" s="4">
-        <f>AVERAGE(Sheet2!$B15:$AD15)</f>
+        <f>AVERAGE(ข้อมูลดิบ!$B15:$AD15)</f>
         <v>4.1724137931034484</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="18">
         <f t="shared" si="1"/>
         <v>0.1724137931034484</v>
       </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11">
+      <c r="J15" s="18"/>
+      <c r="K15" s="18">
         <f t="shared" si="2"/>
         <v>0.74597612595806673</v>
       </c>
-      <c r="L15" s="14"/>
+      <c r="L15" s="19"/>
       <c r="M15" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1799,20 +3857,20 @@
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="S15" s="17">
+      <c r="S15" s="11">
         <f t="shared" si="5"/>
         <v>0.7931034482758621</v>
       </c>
-      <c r="T15" s="18">
+      <c r="T15" s="16">
         <f t="shared" si="6"/>
         <v>79.310344827586206</v>
       </c>
-      <c r="U15" s="18"/>
+      <c r="U15" s="16"/>
       <c r="V15" s="1">
         <f t="shared" si="7"/>
         <v>79</v>
       </c>
-      <c r="W15" s="19" t="s">
+      <c r="W15" s="12" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1821,43 +3879,43 @@
         <v>15</v>
       </c>
       <c r="B16" s="3">
-        <f>COUNTIF(Sheet2!$B16:$AD16,Sheet1!B$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B16:$AD16,รายละเอียด!B$1)</f>
         <v>0</v>
       </c>
       <c r="C16" s="3">
-        <f>COUNTIF(Sheet2!$B16:$AD16,Sheet1!C$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B16:$AD16,รายละเอียด!C$1)</f>
         <v>0</v>
       </c>
       <c r="D16" s="3">
-        <f>COUNTIF(Sheet2!$B16:$AD16,Sheet1!D$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B16:$AD16,รายละเอียด!D$1)</f>
         <v>5</v>
       </c>
       <c r="E16" s="3">
-        <f>COUNTIF(Sheet2!$B16:$AD16,Sheet1!E$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B16:$AD16,รายละเอียด!E$1)</f>
         <v>8</v>
       </c>
       <c r="F16" s="3">
-        <f>COUNTIF(Sheet2!$B16:$AD16,Sheet1!F$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B16:$AD16,รายละเอียด!F$1)</f>
         <v>16</v>
       </c>
       <c r="G16" s="4">
-        <f>_xlfn.STDEV.P(Sheet2!$B16:$AD16)</f>
+        <f>_xlfn.STDEV.P(ข้อมูลดิบ!$B16:$AD16)</f>
         <v>0.76174903566808694</v>
       </c>
       <c r="H16" s="4">
-        <f>AVERAGE(Sheet2!$B16:$AD16)</f>
+        <f>AVERAGE(ข้อมูลดิบ!$B16:$AD16)</f>
         <v>4.3793103448275863</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="18">
         <f t="shared" si="1"/>
         <v>0.3793103448275863</v>
       </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11">
+      <c r="J16" s="18"/>
+      <c r="K16" s="18">
         <f t="shared" si="2"/>
         <v>0.76174903566808694</v>
       </c>
-      <c r="L16" s="14"/>
+      <c r="L16" s="19"/>
       <c r="M16" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1882,20 +3940,20 @@
         <f t="shared" si="4"/>
         <v>24.5</v>
       </c>
-      <c r="S16" s="17">
+      <c r="S16" s="11">
         <f t="shared" si="5"/>
         <v>0.84482758620689657</v>
       </c>
-      <c r="T16" s="18">
+      <c r="T16" s="16">
         <f t="shared" si="6"/>
         <v>84.482758620689651</v>
       </c>
-      <c r="U16" s="18"/>
+      <c r="U16" s="16"/>
       <c r="V16" s="1">
         <f t="shared" si="7"/>
         <v>84</v>
       </c>
-      <c r="W16" s="19" t="s">
+      <c r="W16" s="12" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1904,43 +3962,43 @@
         <v>16</v>
       </c>
       <c r="B17" s="3">
-        <f>COUNTIF(Sheet2!$B17:$AD17,Sheet1!B$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B17:$AD17,รายละเอียด!B$1)</f>
         <v>0</v>
       </c>
       <c r="C17" s="3">
-        <f>COUNTIF(Sheet2!$B17:$AD17,Sheet1!C$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B17:$AD17,รายละเอียด!C$1)</f>
         <v>0</v>
       </c>
       <c r="D17" s="3">
-        <f>COUNTIF(Sheet2!$B17:$AD17,Sheet1!D$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B17:$AD17,รายละเอียด!D$1)</f>
         <v>6</v>
       </c>
       <c r="E17" s="3">
-        <f>COUNTIF(Sheet2!$B17:$AD17,Sheet1!E$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B17:$AD17,รายละเอียด!E$1)</f>
         <v>10</v>
       </c>
       <c r="F17" s="3">
-        <f>COUNTIF(Sheet2!$B17:$AD17,Sheet1!F$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B17:$AD17,รายละเอียด!F$1)</f>
         <v>13</v>
       </c>
       <c r="G17" s="4">
-        <f>_xlfn.STDEV.P(Sheet2!$B17:$AD17)</f>
+        <f>_xlfn.STDEV.P(ข้อมูลดิบ!$B17:$AD17)</f>
         <v>0.77259850008303721</v>
       </c>
       <c r="H17" s="4">
-        <f>AVERAGE(Sheet2!$B17:$AD17)</f>
+        <f>AVERAGE(ข้อมูลดิบ!$B17:$AD17)</f>
         <v>4.2413793103448274</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="18">
         <f t="shared" si="1"/>
         <v>0.2413793103448274</v>
       </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11">
+      <c r="J17" s="18"/>
+      <c r="K17" s="18">
         <f t="shared" si="2"/>
         <v>0.77259850008303721</v>
       </c>
-      <c r="L17" s="14"/>
+      <c r="L17" s="19"/>
       <c r="M17" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1965,20 +4023,20 @@
         <f t="shared" si="4"/>
         <v>23.5</v>
       </c>
-      <c r="S17" s="17">
+      <c r="S17" s="11">
         <f t="shared" si="5"/>
         <v>0.81034482758620685</v>
       </c>
-      <c r="T17" s="18">
+      <c r="T17" s="16">
         <f t="shared" si="6"/>
         <v>81.034482758620683</v>
       </c>
-      <c r="U17" s="18"/>
+      <c r="U17" s="16"/>
       <c r="V17" s="1">
         <f t="shared" si="7"/>
         <v>81</v>
       </c>
-      <c r="W17" s="19" t="s">
+      <c r="W17" s="12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1987,43 +4045,43 @@
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <f>COUNTIF(Sheet2!$B18:$AD18,Sheet1!B$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B18:$AD18,รายละเอียด!B$1)</f>
         <v>0</v>
       </c>
       <c r="C18" s="3">
-        <f>COUNTIF(Sheet2!$B18:$AD18,Sheet1!C$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B18:$AD18,รายละเอียด!C$1)</f>
         <v>1</v>
       </c>
       <c r="D18" s="3">
-        <f>COUNTIF(Sheet2!$B18:$AD18,Sheet1!D$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B18:$AD18,รายละเอียด!D$1)</f>
         <v>5</v>
       </c>
       <c r="E18" s="3">
-        <f>COUNTIF(Sheet2!$B18:$AD18,Sheet1!E$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B18:$AD18,รายละเอียด!E$1)</f>
         <v>13</v>
       </c>
       <c r="F18" s="3">
-        <f>COUNTIF(Sheet2!$B18:$AD18,Sheet1!F$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B18:$AD18,รายละเอียด!F$1)</f>
         <v>10</v>
       </c>
       <c r="G18" s="4">
-        <f>_xlfn.STDEV.P(Sheet2!$B18:$AD18)</f>
+        <f>_xlfn.STDEV.P(ข้อมูลดิบ!$B18:$AD18)</f>
         <v>0.80278942943605625</v>
       </c>
       <c r="H18" s="4">
-        <f>AVERAGE(Sheet2!$B18:$AD18)</f>
+        <f>AVERAGE(ข้อมูลดิบ!$B18:$AD18)</f>
         <v>4.1034482758620694</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="18">
         <f t="shared" si="1"/>
         <v>0.10344827586206939</v>
       </c>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11">
+      <c r="J18" s="18"/>
+      <c r="K18" s="18">
         <f t="shared" si="2"/>
         <v>0.80278942943605625</v>
       </c>
-      <c r="L18" s="14"/>
+      <c r="L18" s="19"/>
       <c r="M18" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2048,20 +4106,20 @@
         <f t="shared" si="4"/>
         <v>22.5</v>
       </c>
-      <c r="S18" s="17">
+      <c r="S18" s="11">
         <f t="shared" si="5"/>
         <v>0.77586206896551724</v>
       </c>
-      <c r="T18" s="18">
+      <c r="T18" s="16">
         <f t="shared" si="6"/>
         <v>77.58620689655173</v>
       </c>
-      <c r="U18" s="18"/>
+      <c r="U18" s="16"/>
       <c r="V18" s="1">
         <f t="shared" si="7"/>
         <v>77</v>
       </c>
-      <c r="W18" s="19" t="s">
+      <c r="W18" s="12" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2070,43 +4128,43 @@
         <v>18</v>
       </c>
       <c r="B19" s="3">
-        <f>COUNTIF(Sheet2!$B19:$AD19,Sheet1!B$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B19:$AD19,รายละเอียด!B$1)</f>
         <v>0</v>
       </c>
       <c r="C19" s="3">
-        <f>COUNTIF(Sheet2!$B19:$AD19,Sheet1!C$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B19:$AD19,รายละเอียด!C$1)</f>
         <v>0</v>
       </c>
       <c r="D19" s="3">
-        <f>COUNTIF(Sheet2!$B19:$AD19,Sheet1!D$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B19:$AD19,รายละเอียด!D$1)</f>
         <v>3</v>
       </c>
       <c r="E19" s="3">
-        <f>COUNTIF(Sheet2!$B19:$AD19,Sheet1!E$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B19:$AD19,รายละเอียด!E$1)</f>
         <v>11</v>
       </c>
       <c r="F19" s="3">
-        <f>COUNTIF(Sheet2!$B19:$AD19,Sheet1!F$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B19:$AD19,รายละเอียด!F$1)</f>
         <v>15</v>
       </c>
       <c r="G19" s="4">
-        <f>_xlfn.STDEV.P(Sheet2!$B19:$AD19)</f>
+        <f>_xlfn.STDEV.P(ข้อมูลดิบ!$B19:$AD19)</f>
         <v>0.67042145155943378</v>
       </c>
       <c r="H19" s="4">
-        <f>AVERAGE(Sheet2!$B19:$AD19)</f>
+        <f>AVERAGE(ข้อมูลดิบ!$B19:$AD19)</f>
         <v>4.4137931034482758</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="18">
         <f t="shared" si="1"/>
         <v>0.4137931034482758</v>
       </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11">
+      <c r="J19" s="18"/>
+      <c r="K19" s="18">
         <f t="shared" si="2"/>
         <v>0.67042145155943378</v>
       </c>
-      <c r="L19" s="14"/>
+      <c r="L19" s="19"/>
       <c r="M19" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2131,20 +4189,20 @@
         <f t="shared" si="4"/>
         <v>24.75</v>
       </c>
-      <c r="S19" s="17">
+      <c r="S19" s="11">
         <f t="shared" si="5"/>
         <v>0.85344827586206895</v>
       </c>
-      <c r="T19" s="18">
+      <c r="T19" s="16">
         <f t="shared" si="6"/>
         <v>85.34482758620689</v>
       </c>
-      <c r="U19" s="18"/>
+      <c r="U19" s="16"/>
       <c r="V19" s="1">
         <f t="shared" si="7"/>
         <v>85</v>
       </c>
-      <c r="W19" s="19" t="s">
+      <c r="W19" s="12" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2153,43 +4211,43 @@
         <v>19</v>
       </c>
       <c r="B20" s="3">
-        <f>COUNTIF(Sheet2!$B20:$AD20,Sheet1!B$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B20:$AD20,รายละเอียด!B$1)</f>
         <v>0</v>
       </c>
       <c r="C20" s="3">
-        <f>COUNTIF(Sheet2!$B20:$AD20,Sheet1!C$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B20:$AD20,รายละเอียด!C$1)</f>
         <v>0</v>
       </c>
       <c r="D20" s="3">
-        <f>COUNTIF(Sheet2!$B20:$AD20,Sheet1!D$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B20:$AD20,รายละเอียด!D$1)</f>
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <f>COUNTIF(Sheet2!$B20:$AD20,Sheet1!E$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B20:$AD20,รายละเอียด!E$1)</f>
         <v>12</v>
       </c>
       <c r="F20" s="3">
-        <f>COUNTIF(Sheet2!$B20:$AD20,Sheet1!F$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B20:$AD20,รายละเอียด!F$1)</f>
         <v>14</v>
       </c>
       <c r="G20" s="4">
-        <f>_xlfn.STDEV.P(Sheet2!$B20:$AD20)</f>
+        <f>_xlfn.STDEV.P(ข้อมูลดิบ!$B20:$AD20)</f>
         <v>0.66507936282710034</v>
       </c>
       <c r="H20" s="4">
-        <f>AVERAGE(Sheet2!$B20:$AD20)</f>
+        <f>AVERAGE(ข้อมูลดิบ!$B20:$AD20)</f>
         <v>4.3793103448275863</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="18">
         <f t="shared" si="1"/>
         <v>0.3793103448275863</v>
       </c>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11">
+      <c r="J20" s="18"/>
+      <c r="K20" s="18">
         <f t="shared" si="2"/>
         <v>0.66507936282710034</v>
       </c>
-      <c r="L20" s="14"/>
+      <c r="L20" s="19"/>
       <c r="M20" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2214,20 +4272,20 @@
         <f t="shared" si="4"/>
         <v>24.5</v>
       </c>
-      <c r="S20" s="17">
+      <c r="S20" s="11">
         <f t="shared" si="5"/>
         <v>0.84482758620689657</v>
       </c>
-      <c r="T20" s="18">
+      <c r="T20" s="16">
         <f t="shared" si="6"/>
         <v>84.482758620689651</v>
       </c>
-      <c r="U20" s="18"/>
+      <c r="U20" s="16"/>
       <c r="V20" s="1">
         <f t="shared" si="7"/>
         <v>84</v>
       </c>
-      <c r="W20" s="19" t="s">
+      <c r="W20" s="12" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2236,43 +4294,43 @@
         <v>20</v>
       </c>
       <c r="B21" s="6">
-        <f>COUNTIF(Sheet2!$B21:$AD21,Sheet1!B$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B21:$AD21,รายละเอียด!B$1)</f>
         <v>0</v>
       </c>
       <c r="C21" s="6">
-        <f>COUNTIF(Sheet2!$B21:$AD21,Sheet1!C$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B21:$AD21,รายละเอียด!C$1)</f>
         <v>0</v>
       </c>
       <c r="D21" s="6">
-        <f>COUNTIF(Sheet2!$B21:$AD21,Sheet1!D$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B21:$AD21,รายละเอียด!D$1)</f>
         <v>2</v>
       </c>
       <c r="E21" s="6">
-        <f>COUNTIF(Sheet2!$B21:$AD21,Sheet1!E$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B21:$AD21,รายละเอียด!E$1)</f>
         <v>16</v>
       </c>
       <c r="F21" s="6">
-        <f>COUNTIF(Sheet2!$B21:$AD21,Sheet1!F$1)</f>
+        <f>COUNTIF(ข้อมูลดิบ!$B21:$AD21,รายละเอียด!F$1)</f>
         <v>11</v>
       </c>
       <c r="G21" s="5">
-        <f>_xlfn.STDEV.P(Sheet2!$B21:$AD21)</f>
+        <f>_xlfn.STDEV.P(ข้อมูลดิบ!$B21:$AD21)</f>
         <v>0.59326381152018115</v>
       </c>
       <c r="H21" s="5">
-        <f>AVERAGE(Sheet2!$B21:$AD21)</f>
+        <f>AVERAGE(ข้อมูลดิบ!$B21:$AD21)</f>
         <v>4.3103448275862073</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="20">
         <f t="shared" si="1"/>
         <v>0.31034482758620729</v>
       </c>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12">
+      <c r="J21" s="20"/>
+      <c r="K21" s="20">
         <f t="shared" si="2"/>
         <v>0.59326381152018115</v>
       </c>
-      <c r="L21" s="15"/>
+      <c r="L21" s="17"/>
       <c r="M21" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2297,15 +4355,15 @@
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="S21" s="22">
+      <c r="S21" s="15">
         <f t="shared" si="5"/>
         <v>0.82758620689655171</v>
       </c>
-      <c r="T21" s="15">
+      <c r="T21" s="17">
         <f t="shared" si="6"/>
         <v>82.758620689655174</v>
       </c>
-      <c r="U21" s="15"/>
+      <c r="U21" s="17"/>
       <c r="V21" s="6">
         <f t="shared" si="7"/>
         <v>82</v>
@@ -2318,64 +4376,32 @@
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="17">
-        <v>0</v>
-      </c>
-      <c r="C22" s="17">
+      <c r="B22" s="11">
+        <v>0</v>
+      </c>
+      <c r="C22" s="11">
         <v>0.25</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="11">
         <v>0.5</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="11">
         <v>0.75</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="11">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I3:J3"/>
@@ -2388,14 +4414,46 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T21:U21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:F21">
@@ -2523,6 +4581,877 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D4CECF5-45A3-4CA0-8FFA-6797279A7BD7}">
+  <dimension ref="A1:L26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="3.5" style="23" customWidth="1"/>
+    <col min="8" max="8" width="11.375" style="23" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="29">
+        <v>1</v>
+      </c>
+      <c r="D2" s="29">
+        <v>2</v>
+      </c>
+      <c r="E2" s="29">
+        <v>3</v>
+      </c>
+      <c r="F2" s="29">
+        <v>4</v>
+      </c>
+      <c r="G2" s="29">
+        <v>5</v>
+      </c>
+      <c r="H2" s="32"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="36"/>
+      <c r="K3" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="33">
+        <v>1</v>
+      </c>
+      <c r="B4" s="42" t="str">
+        <f>รายละเอียด!W2</f>
+        <v>ปริมาณข้อมูลในการกรอกข้อมูลคาบเรียน</v>
+      </c>
+      <c r="C4" s="49">
+        <f>รายละเอียด!B2</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="50">
+        <f>รายละเอียด!C2</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="50">
+        <f>รายละเอียด!D2</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="50">
+        <f>รายละเอียด!E2</f>
+        <v>16</v>
+      </c>
+      <c r="G4" s="51">
+        <f>รายละเอียด!F2</f>
+        <v>12</v>
+      </c>
+      <c r="H4" s="45">
+        <f>รายละเอียด!S2</f>
+        <v>0.84482758620689657</v>
+      </c>
+      <c r="K4" s="38">
+        <f>H4</f>
+        <v>0.84482758620689657</v>
+      </c>
+      <c r="L4" s="38">
+        <f>H16</f>
+        <v>0.88793103448275867</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="30">
+        <v>2</v>
+      </c>
+      <c r="B5" s="43" t="str">
+        <f>รายละเอียด!W3</f>
+        <v>ปริมาณข้อมูลในการกรอกข้อมูลสถานที่สอน</v>
+      </c>
+      <c r="C5" s="30">
+        <f>รายละเอียด!B3</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="26">
+        <f>รายละเอียด!C3</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="26">
+        <f>รายละเอียด!D3</f>
+        <v>3</v>
+      </c>
+      <c r="F5" s="26">
+        <f>รายละเอียด!E3</f>
+        <v>15</v>
+      </c>
+      <c r="G5" s="52">
+        <f>รายละเอียด!F3</f>
+        <v>11</v>
+      </c>
+      <c r="H5" s="46">
+        <f>รายละเอียด!S3</f>
+        <v>0.81896551724137934</v>
+      </c>
+      <c r="K5" s="38">
+        <f t="shared" ref="K5:K13" si="0">H5</f>
+        <v>0.81896551724137934</v>
+      </c>
+      <c r="L5" s="38">
+        <f t="shared" ref="L5:L13" si="1">H17</f>
+        <v>0.7931034482758621</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="30">
+        <v>3</v>
+      </c>
+      <c r="B6" s="43" t="str">
+        <f>รายละเอียด!W4</f>
+        <v>การแสดงผลข้อมูลตารางเรียน</v>
+      </c>
+      <c r="C6" s="30">
+        <f>รายละเอียด!B4</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="26">
+        <f>รายละเอียด!C4</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="26">
+        <f>รายละเอียด!D4</f>
+        <v>3</v>
+      </c>
+      <c r="F6" s="26">
+        <f>รายละเอียด!E4</f>
+        <v>14</v>
+      </c>
+      <c r="G6" s="52">
+        <f>รายละเอียด!F4</f>
+        <v>12</v>
+      </c>
+      <c r="H6" s="46">
+        <f>รายละเอียด!S4</f>
+        <v>0.82758620689655171</v>
+      </c>
+      <c r="K6" s="38">
+        <f t="shared" si="0"/>
+        <v>0.82758620689655171</v>
+      </c>
+      <c r="L6" s="38">
+        <f t="shared" si="1"/>
+        <v>0.80172413793103448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="30">
+        <v>4</v>
+      </c>
+      <c r="B7" s="43" t="str">
+        <f>รายละเอียด!W5</f>
+        <v>การแสดงผลข้อมูลสถานที่สอน</v>
+      </c>
+      <c r="C7" s="30">
+        <f>รายละเอียด!B5</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="26">
+        <f>รายละเอียด!C5</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="26">
+        <f>รายละเอียด!D5</f>
+        <v>6</v>
+      </c>
+      <c r="F7" s="26">
+        <f>รายละเอียด!E5</f>
+        <v>12</v>
+      </c>
+      <c r="G7" s="52">
+        <f>รายละเอียด!F5</f>
+        <v>11</v>
+      </c>
+      <c r="H7" s="46">
+        <f>รายละเอียด!S5</f>
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="K7" s="38">
+        <f t="shared" si="0"/>
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="L7" s="38">
+        <f t="shared" si="1"/>
+        <v>0.7931034482758621</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="30">
+        <v>5</v>
+      </c>
+      <c r="B8" s="43" t="str">
+        <f>รายละเอียด!W6</f>
+        <v>การแก้ไขข้อมูลคาบเรียนและตารางเรียน</v>
+      </c>
+      <c r="C8" s="30">
+        <f>รายละเอียด!B6</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="26">
+        <f>รายละเอียด!C6</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="26">
+        <f>รายละเอียด!D6</f>
+        <v>8</v>
+      </c>
+      <c r="F8" s="26">
+        <f>รายละเอียด!E6</f>
+        <v>9</v>
+      </c>
+      <c r="G8" s="52">
+        <f>รายละเอียด!F6</f>
+        <v>12</v>
+      </c>
+      <c r="H8" s="46">
+        <f>รายละเอียด!S6</f>
+        <v>0.78448275862068961</v>
+      </c>
+      <c r="K8" s="38">
+        <f t="shared" si="0"/>
+        <v>0.78448275862068961</v>
+      </c>
+      <c r="L8" s="38">
+        <f t="shared" si="1"/>
+        <v>0.84482758620689657</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="30">
+        <v>6</v>
+      </c>
+      <c r="B9" s="43" t="str">
+        <f>รายละเอียด!W7</f>
+        <v>การแก้ไขข้อมูลสถานที่สอนของอาจารย์</v>
+      </c>
+      <c r="C9" s="30">
+        <f>รายละเอียด!B7</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="26">
+        <f>รายละเอียด!C7</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="26">
+        <f>รายละเอียด!D7</f>
+        <v>9</v>
+      </c>
+      <c r="F9" s="26">
+        <f>รายละเอียด!E7</f>
+        <v>11</v>
+      </c>
+      <c r="G9" s="52">
+        <f>รายละเอียด!F7</f>
+        <v>9</v>
+      </c>
+      <c r="H9" s="46">
+        <f>รายละเอียด!S7</f>
+        <v>0.75</v>
+      </c>
+      <c r="K9" s="38">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="L9" s="38">
+        <f t="shared" si="1"/>
+        <v>0.81034482758620685</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="30">
+        <v>7</v>
+      </c>
+      <c r="B10" s="43" t="str">
+        <f>รายละเอียด!W8</f>
+        <v>การจัดการกับรายชื่ออาจารย์</v>
+      </c>
+      <c r="C10" s="30">
+        <f>รายละเอียด!B8</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="26">
+        <f>รายละเอียด!C8</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="26">
+        <f>รายละเอียด!D8</f>
+        <v>6</v>
+      </c>
+      <c r="F10" s="26">
+        <f>รายละเอียด!E8</f>
+        <v>13</v>
+      </c>
+      <c r="G10" s="52">
+        <f>รายละเอียด!F8</f>
+        <v>10</v>
+      </c>
+      <c r="H10" s="46">
+        <f>รายละเอียด!S8</f>
+        <v>0.78448275862068961</v>
+      </c>
+      <c r="K10" s="38">
+        <f t="shared" si="0"/>
+        <v>0.78448275862068961</v>
+      </c>
+      <c r="L10" s="38">
+        <f t="shared" si="1"/>
+        <v>0.77586206896551724</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="30">
+        <v>8</v>
+      </c>
+      <c r="B11" s="43" t="str">
+        <f>รายละเอียด!W9</f>
+        <v>คำสั่ง [ส่งออกข้อมูล]</v>
+      </c>
+      <c r="C11" s="30">
+        <f>รายละเอียด!B9</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="26">
+        <f>รายละเอียด!C9</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="26">
+        <f>รายละเอียด!D9</f>
+        <v>7</v>
+      </c>
+      <c r="F11" s="26">
+        <f>รายละเอียด!E9</f>
+        <v>12</v>
+      </c>
+      <c r="G11" s="52">
+        <f>รายละเอียด!F9</f>
+        <v>10</v>
+      </c>
+      <c r="H11" s="46">
+        <f>รายละเอียด!S9</f>
+        <v>0.77586206896551724</v>
+      </c>
+      <c r="K11" s="38">
+        <f t="shared" si="0"/>
+        <v>0.77586206896551724</v>
+      </c>
+      <c r="L11" s="38">
+        <f t="shared" si="1"/>
+        <v>0.85344827586206895</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="30">
+        <v>9</v>
+      </c>
+      <c r="B12" s="43" t="str">
+        <f>รายละเอียด!W10</f>
+        <v>คำสั่ง [นำเข้าข้อมูล]</v>
+      </c>
+      <c r="C12" s="30">
+        <f>รายละเอียด!B10</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="26">
+        <f>รายละเอียด!C10</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="26">
+        <f>รายละเอียด!D10</f>
+        <v>7</v>
+      </c>
+      <c r="F12" s="26">
+        <f>รายละเอียด!E10</f>
+        <v>13</v>
+      </c>
+      <c r="G12" s="52">
+        <f>รายละเอียด!F10</f>
+        <v>9</v>
+      </c>
+      <c r="H12" s="46">
+        <f>รายละเอียด!S10</f>
+        <v>0.76724137931034486</v>
+      </c>
+      <c r="K12" s="38">
+        <f t="shared" si="0"/>
+        <v>0.76724137931034486</v>
+      </c>
+      <c r="L12" s="38">
+        <f t="shared" si="1"/>
+        <v>0.84482758620689657</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="39">
+        <v>10</v>
+      </c>
+      <c r="B13" s="44" t="str">
+        <f>รายละเอียด!W11</f>
+        <v>คำสั่ง [ล้างข้อมูล]</v>
+      </c>
+      <c r="C13" s="31">
+        <f>รายละเอียด!B11</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="37">
+        <f>รายละเอียด!C11</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="37">
+        <f>รายละเอียด!D11</f>
+        <v>4</v>
+      </c>
+      <c r="F13" s="37">
+        <f>รายละเอียด!E11</f>
+        <v>16</v>
+      </c>
+      <c r="G13" s="53">
+        <f>รายละเอียด!F11</f>
+        <v>9</v>
+      </c>
+      <c r="H13" s="47">
+        <f>รายละเอียด!S11</f>
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="K13" s="38">
+        <f t="shared" si="0"/>
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="L13" s="38">
+        <f t="shared" si="1"/>
+        <v>0.82758620689655171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="48">
+        <f>AVERAGE(รายละเอียด!S2:S11)</f>
+        <v>0.79396551724137931</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="36"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="33">
+        <v>11</v>
+      </c>
+      <c r="B16" s="42" t="str">
+        <f>รายละเอียด!W12</f>
+        <v>การอ่านข้อมูลภายในแอปพลิเคชัน</v>
+      </c>
+      <c r="C16" s="49">
+        <f>รายละเอียด!B12</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="50">
+        <f>รายละเอียด!C12</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="50">
+        <f>รายละเอียด!D12</f>
+        <v>2</v>
+      </c>
+      <c r="F16" s="50">
+        <f>รายละเอียด!E12</f>
+        <v>9</v>
+      </c>
+      <c r="G16" s="51">
+        <f>รายละเอียด!F12</f>
+        <v>18</v>
+      </c>
+      <c r="H16" s="45">
+        <f>รายละเอียด!S12</f>
+        <v>0.88793103448275867</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="30">
+        <v>12</v>
+      </c>
+      <c r="B17" s="43" t="str">
+        <f>รายละเอียด!W13</f>
+        <v>การเพิ่มและการแก้ไขข้อมูลภายในแอปพลิเคชัน</v>
+      </c>
+      <c r="C17" s="30">
+        <f>รายละเอียด!B13</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="26">
+        <f>รายละเอียด!C13</f>
+        <v>1</v>
+      </c>
+      <c r="E17" s="26">
+        <f>รายละเอียด!D13</f>
+        <v>6</v>
+      </c>
+      <c r="F17" s="26">
+        <f>รายละเอียด!E13</f>
+        <v>9</v>
+      </c>
+      <c r="G17" s="52">
+        <f>รายละเอียด!F13</f>
+        <v>13</v>
+      </c>
+      <c r="H17" s="46">
+        <f>รายละเอียด!S13</f>
+        <v>0.7931034482758621</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="30">
+        <v>13</v>
+      </c>
+      <c r="B18" s="43" t="str">
+        <f>รายละเอียด!W14</f>
+        <v>การโอนย้ายข้อมูลระหว่างแอปพลิเคชัน</v>
+      </c>
+      <c r="C18" s="30">
+        <f>รายละเอียด!B14</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="26">
+        <f>รายละเอียด!C14</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="26">
+        <f>รายละเอียด!D14</f>
+        <v>6</v>
+      </c>
+      <c r="F18" s="26">
+        <f>รายละเอียด!E14</f>
+        <v>11</v>
+      </c>
+      <c r="G18" s="52">
+        <f>รายละเอียด!F14</f>
+        <v>12</v>
+      </c>
+      <c r="H18" s="46">
+        <f>รายละเอียด!S14</f>
+        <v>0.80172413793103448</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="30">
+        <v>14</v>
+      </c>
+      <c r="B19" s="43" t="str">
+        <f>รายละเอียด!W15</f>
+        <v>ความครบถ้วนของข้อมูลที่ใช้แสดงผลภายในแอปพลิเคชัน</v>
+      </c>
+      <c r="C19" s="30">
+        <f>รายละเอียด!B15</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="26">
+        <f>รายละเอียด!C15</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="26">
+        <f>รายละเอียด!D15</f>
+        <v>6</v>
+      </c>
+      <c r="F19" s="26">
+        <f>รายละเอียด!E15</f>
+        <v>12</v>
+      </c>
+      <c r="G19" s="52">
+        <f>รายละเอียด!F15</f>
+        <v>11</v>
+      </c>
+      <c r="H19" s="46">
+        <f>รายละเอียด!S15</f>
+        <v>0.7931034482758621</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="30">
+        <v>15</v>
+      </c>
+      <c r="B20" s="43" t="str">
+        <f>รายละเอียด!W16</f>
+        <v>ความรวดเร็วในการเรียกใช้แอปพลิเคชัน</v>
+      </c>
+      <c r="C20" s="30">
+        <f>รายละเอียด!B16</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="26">
+        <f>รายละเอียด!C16</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="26">
+        <f>รายละเอียด!D16</f>
+        <v>5</v>
+      </c>
+      <c r="F20" s="26">
+        <f>รายละเอียด!E16</f>
+        <v>8</v>
+      </c>
+      <c r="G20" s="52">
+        <f>รายละเอียด!F16</f>
+        <v>16</v>
+      </c>
+      <c r="H20" s="46">
+        <f>รายละเอียด!S16</f>
+        <v>0.84482758620689657</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="30">
+        <v>16</v>
+      </c>
+      <c r="B21" s="43" t="str">
+        <f>รายละเอียด!W17</f>
+        <v>การควบคุมแอปพลิเคชัน</v>
+      </c>
+      <c r="C21" s="30">
+        <f>รายละเอียด!B17</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="26">
+        <f>รายละเอียด!C17</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="26">
+        <f>รายละเอียด!D17</f>
+        <v>6</v>
+      </c>
+      <c r="F21" s="26">
+        <f>รายละเอียด!E17</f>
+        <v>10</v>
+      </c>
+      <c r="G21" s="52">
+        <f>รายละเอียด!F17</f>
+        <v>13</v>
+      </c>
+      <c r="H21" s="46">
+        <f>รายละเอียด!S17</f>
+        <v>0.81034482758620685</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="30">
+        <v>17</v>
+      </c>
+      <c r="B22" s="43" t="str">
+        <f>รายละเอียด!W18</f>
+        <v>ความเสถียรภายในแอปพลิเคชัน</v>
+      </c>
+      <c r="C22" s="30">
+        <f>รายละเอียด!B18</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="26">
+        <f>รายละเอียด!C18</f>
+        <v>1</v>
+      </c>
+      <c r="E22" s="26">
+        <f>รายละเอียด!D18</f>
+        <v>5</v>
+      </c>
+      <c r="F22" s="26">
+        <f>รายละเอียด!E18</f>
+        <v>13</v>
+      </c>
+      <c r="G22" s="52">
+        <f>รายละเอียด!F18</f>
+        <v>10</v>
+      </c>
+      <c r="H22" s="46">
+        <f>รายละเอียด!S18</f>
+        <v>0.77586206896551724</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="30">
+        <v>18</v>
+      </c>
+      <c r="B23" s="43" t="str">
+        <f>รายละเอียด!W19</f>
+        <v>การออกแบบภายในแอปพลิเคชัน</v>
+      </c>
+      <c r="C23" s="30">
+        <f>รายละเอียด!B19</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="26">
+        <f>รายละเอียด!C19</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="26">
+        <f>รายละเอียด!D19</f>
+        <v>3</v>
+      </c>
+      <c r="F23" s="26">
+        <f>รายละเอียด!E19</f>
+        <v>11</v>
+      </c>
+      <c r="G23" s="52">
+        <f>รายละเอียด!F19</f>
+        <v>15</v>
+      </c>
+      <c r="H23" s="46">
+        <f>รายละเอียด!S19</f>
+        <v>0.85344827586206895</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="30">
+        <v>19</v>
+      </c>
+      <c r="B24" s="43" t="str">
+        <f>รายละเอียด!W20</f>
+        <v>ขนาดของตัวอักษรภายในแอปพลิเคชัน</v>
+      </c>
+      <c r="C24" s="30">
+        <f>รายละเอียด!B20</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="26">
+        <f>รายละเอียด!C20</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="26">
+        <f>รายละเอียด!D20</f>
+        <v>3</v>
+      </c>
+      <c r="F24" s="26">
+        <f>รายละเอียด!E20</f>
+        <v>12</v>
+      </c>
+      <c r="G24" s="52">
+        <f>รายละเอียด!F20</f>
+        <v>14</v>
+      </c>
+      <c r="H24" s="46">
+        <f>รายละเอียด!S20</f>
+        <v>0.84482758620689657</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="39">
+        <v>20</v>
+      </c>
+      <c r="B25" s="44" t="str">
+        <f>รายละเอียด!W21</f>
+        <v>ความพึงพอใจแอปพลิเคชันในภาพรวม</v>
+      </c>
+      <c r="C25" s="31">
+        <f>รายละเอียด!B21</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="37">
+        <f>รายละเอียด!C21</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="37">
+        <f>รายละเอียด!D21</f>
+        <v>2</v>
+      </c>
+      <c r="F25" s="37">
+        <f>รายละเอียด!E21</f>
+        <v>16</v>
+      </c>
+      <c r="G25" s="53">
+        <f>รายละเอียด!F21</f>
+        <v>11</v>
+      </c>
+      <c r="H25" s="47">
+        <f>รายละเอียด!S21</f>
+        <v>0.82758620689655171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="48">
+        <f>AVERAGE(รายละเอียด!S12:S21)</f>
+        <v>0.82327586206896552</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A14:G14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3CD7E7-4165-4628-A8CF-AC5B870BAB08}">
   <dimension ref="A1:AD21"/>
   <sheetViews>
@@ -2530,7 +5459,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K7" sqref="J7:K7"/>
+      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
